--- a/TAXONOMIE/TAXREF-MATCH-BASEFLOR/Correctif_baseflor_bryo.xlsx
+++ b/TAXONOMIE/TAXREF-MATCH-BASEFLOR/Correctif_baseflor_bryo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\TAXONOMIE\TAXREF-MATCH-BASEFLOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8913AD-C18E-454A-8B7F-C9F485002F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718EE45F-C2F5-4307-A6B0-36288E3759ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="1145">
   <si>
     <t>CD_NOM</t>
   </si>
@@ -3403,12 +3403,6 @@
     <t>Ophrys exaltata Ten., 1819</t>
   </si>
   <si>
-    <t>Orobanche reticulata Wallr., 1825</t>
-  </si>
-  <si>
-    <t>Pistacia terebinthus L., 1753</t>
-  </si>
-  <si>
     <t>Trifolium stellatum L., 1753</t>
   </si>
   <si>
@@ -3440,6 +3434,54 @@
   </si>
   <si>
     <t>3-6</t>
+  </si>
+  <si>
+    <t>LB_NOM</t>
+  </si>
+  <si>
+    <t>Cleistogenes serotina subsp. serotina</t>
+  </si>
+  <si>
+    <t>Allium scaberrimum</t>
+  </si>
+  <si>
+    <t>Inula bifrons</t>
+  </si>
+  <si>
+    <t>Nigella hispanica var. hispanica</t>
+  </si>
+  <si>
+    <t>Scrophularia provincialis</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>Persicaria dubia</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>Orobanche reticulata</t>
+  </si>
+  <si>
+    <t>Pistacia terebinthus</t>
+  </si>
+  <si>
+    <t>Polygala comosa</t>
+  </si>
+  <si>
+    <t>groupements euro-sibériens annuels des vases fluviatiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annuelles commensales des cultures basophiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ourlets basophiles supraméditerranéens, mésoxérophiles </t>
+  </si>
+  <si>
+    <t>plante adventice des champs de blé et de seigle. Elle se rencontre également dans les friches.</t>
   </si>
 </sst>
 </file>
@@ -3483,7 +3525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3496,6 +3538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3776,34 +3819,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="61.08984375" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="16.90625" style="1" customWidth="1"/>
     <col min="4" max="4" width="78.54296875" customWidth="1"/>
     <col min="5" max="5" width="46.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3829,7 +3872,7 @@
         <v>612437</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>1130</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1085</v>
@@ -3843,7 +3886,7 @@
         <v>91852</v>
       </c>
       <c r="B4" t="s">
-        <v>590</v>
+        <v>1130</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1085</v>
@@ -3871,7 +3914,7 @@
         <v>82498</v>
       </c>
       <c r="B6" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1087</v>
@@ -4087,7 +4130,7 @@
         <v>1117</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D21" t="s">
         <v>824</v>
@@ -4101,7 +4144,7 @@
         <v>111649</v>
       </c>
       <c r="B22" t="s">
-        <v>1118</v>
+        <v>1138</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -4118,10 +4161,10 @@
         <v>113748</v>
       </c>
       <c r="B23" t="s">
-        <v>1119</v>
+        <v>1139</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D23" t="s">
         <v>817</v>
@@ -4135,10 +4178,10 @@
         <v>114545</v>
       </c>
       <c r="B24" t="s">
-        <v>403</v>
+        <v>1140</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D24" t="s">
         <v>839</v>
@@ -4152,7 +4195,7 @@
         <v>127491</v>
       </c>
       <c r="B25" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1094</v>
@@ -4169,10 +4212,10 @@
         <v>129307</v>
       </c>
       <c r="B26" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D26" t="s">
         <v>1113</v>
@@ -4186,10 +4229,10 @@
         <v>129999</v>
       </c>
       <c r="B27" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D27" t="s">
         <v>852</v>
@@ -4203,7 +4246,7 @@
         <v>162206</v>
       </c>
       <c r="B28" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1087</v>
@@ -4213,6 +4256,76 @@
       </c>
       <c r="E28" t="s">
         <v>1108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>81507</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>103596</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>718723</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>122036</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D32" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>112736</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -4225,7 +4338,7 @@
   <dimension ref="A1:E827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C810" sqref="C810"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18304,7 +18417,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18334,15 +18447,16 @@
         <v>1105</v>
       </c>
       <c r="B3" s="4">
-        <v>45460</v>
+        <f ca="1">NOW()</f>
+        <v>45673.447240856483</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/TAXONOMIE/TAXREF-MATCH-BASEFLOR/Correctif_baseflor_bryo.xlsx
+++ b/TAXONOMIE/TAXREF-MATCH-BASEFLOR/Correctif_baseflor_bryo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\TAXONOMIE\TAXREF-MATCH-BASEFLOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718EE45F-C2F5-4307-A6B0-36288E3759ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AA451E-AD62-46C1-9DD9-A93F06502E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CORRECTIF" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="1157">
   <si>
     <t>CD_NOM</t>
   </si>
@@ -3482,6 +3482,42 @@
   </si>
   <si>
     <t>plante adventice des champs de blé et de seigle. Elle se rencontre également dans les friches.</t>
+  </si>
+  <si>
+    <t>Mai-Juillet</t>
+  </si>
+  <si>
+    <t>Caucalidion platycarpi Tüxen 1950 ex von Rochow 1951</t>
+  </si>
+  <si>
+    <t>Mars-Juin(Août)</t>
+  </si>
+  <si>
+    <t>Onopordetea acanthii Braun-Blanquet 1964</t>
+  </si>
+  <si>
+    <t>Avril-Juin</t>
+  </si>
+  <si>
+    <t>Tanaceto corymbosi - Bupleurion falcati subsp. falcati Julve 1993</t>
+  </si>
+  <si>
+    <t>Mars-Mai</t>
+  </si>
+  <si>
+    <t>Serapiadetea cordigero - linguae de Foucault 2012</t>
+  </si>
+  <si>
+    <t>Juin-Aout</t>
+  </si>
+  <si>
+    <t>Ononidetalia striatae Braun-Blanquet 1949 em. Gaultier 1989</t>
+  </si>
+  <si>
+    <t>Mars-Juillet</t>
+  </si>
+  <si>
+    <t>Aphyllanthion monspeliensis Braun-Blanquet (1931) 1947 em. Barbero, Loisel &amp; Quézel 1972</t>
   </si>
 </sst>
 </file>
@@ -3819,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4314,7 +4350,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>112736</v>
       </c>
@@ -4326,6 +4362,125 @@
       </c>
       <c r="D33" t="s">
         <v>1141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>80211</v>
+      </c>
+      <c r="B34" t="s">
+        <v>670</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>88207</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>858</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>129596</v>
+      </c>
+      <c r="B36" t="s">
+        <v>536</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>802</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>110357</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D37" t="s">
+        <v>821</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>132972</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D38" t="s">
+        <v>840</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>718283</v>
+      </c>
+      <c r="B39" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D39" t="s">
+        <v>964</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>120678</v>
+      </c>
+      <c r="B40" t="s">
+        <v>452</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D40" t="s">
+        <v>824</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -18448,7 +18603,7 @@
       </c>
       <c r="B3" s="4">
         <f ca="1">NOW()</f>
-        <v>45673.447240856483</v>
+        <v>45709.626593749999</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/TAXONOMIE/TAXREF-MATCH-BASEFLOR/Correctif_baseflor_bryo.xlsx
+++ b/TAXONOMIE/TAXREF-MATCH-BASEFLOR/Correctif_baseflor_bryo.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\TAXONOMIE\TAXREF-MATCH-BASEFLOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AA451E-AD62-46C1-9DD9-A93F06502E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F5B04-D20E-4847-AA11-D4FB40564904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CORRECTIF" sheetId="1" r:id="rId1"/>
     <sheet name="AJOUT_FLORAISON" sheetId="2" r:id="rId2"/>
     <sheet name="METADATA" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORRECTIF!$A$1:$E$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="1169">
   <si>
     <t>CD_NOM</t>
   </si>
@@ -3518,13 +3521,52 @@
   </si>
   <si>
     <t>Aphyllanthion monspeliensis Braun-Blanquet (1931) 1947 em. Barbero, Loisel &amp; Quézel 1972</t>
+  </si>
+  <si>
+    <t>Chenaies pubescente thermophile matorale méditerranéenned</t>
+  </si>
+  <si>
+    <t>sous bois, pelouses et landes mésophiles à mésohygrophiles</t>
+  </si>
+  <si>
+    <t>Janvier-Mars</t>
+  </si>
+  <si>
+    <t>Mai-juin</t>
+  </si>
+  <si>
+    <t>Sporulation entre mars et mai</t>
+  </si>
+  <si>
+    <t>pelouses vivaces hygrophiles, oligotrophiles, surtout acidiphiles</t>
+  </si>
+  <si>
+    <t>Juin-septembre</t>
+  </si>
+  <si>
+    <t>Fevrier-Avril</t>
+  </si>
+  <si>
+    <t>Pelousesméso à hygrophile, oligotrophiles, thermophiles</t>
+  </si>
+  <si>
+    <t>Ampelodesmos mauritanicus (Poir.) T.Durand &amp; Schinz, 1894</t>
+  </si>
+  <si>
+    <t>Mai-Juin</t>
+  </si>
+  <si>
+    <t>Pelouses et fruticées méditéranéennes xérophiles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.00\ [$€-40C];[Red]\-#,##0.00\ [$€-40C]"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3540,16 +3582,253 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FAADC"/>
+        <bgColor rgb="FF9DC3E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B183"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C9C9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DC3E6"/>
+        <bgColor rgb="FF8FAADC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFC9C9C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF595959"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFBE5D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFC00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFDEEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFBE5D6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3557,9 +3836,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3576,8 +3910,46 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="39">
+    <cellStyle name="60 % - Accent1 2" xfId="2" xr:uid="{C61E9F51-21FD-45BA-B024-6FEB1B97DE2B}"/>
+    <cellStyle name="60 % - Accent2 2" xfId="3" xr:uid="{B603078F-70EB-4856-8467-F4A992DD9095}"/>
+    <cellStyle name="60 % - Accent3 2" xfId="4" xr:uid="{49E110B3-03F8-4163-AA29-EB28FF3163F1}"/>
+    <cellStyle name="60 % - Accent4 2" xfId="5" xr:uid="{D2163174-DA18-4418-AD2C-C561506E6F61}"/>
+    <cellStyle name="60 % - Accent5 2" xfId="6" xr:uid="{2444809F-F6FE-45C2-B543-D5B280A22A89}"/>
+    <cellStyle name="60 % - Accent6 2" xfId="7" xr:uid="{ED5CFB21-B776-4B3F-9A8F-90C9D07C7308}"/>
+    <cellStyle name="Accent 1 5" xfId="8" xr:uid="{6038C908-2A11-4AAC-9F32-7FB7936D8809}"/>
+    <cellStyle name="Accent 2 6" xfId="9" xr:uid="{BDBCE108-4910-4455-A03E-480EFB8061B6}"/>
+    <cellStyle name="Accent 3 7" xfId="10" xr:uid="{CD0393E6-4CC6-4042-BCF3-27DEB53C7E70}"/>
+    <cellStyle name="Accent 4" xfId="11" xr:uid="{F16868B1-225B-49E6-8044-FA610CA6CA26}"/>
+    <cellStyle name="Bad 8" xfId="12" xr:uid="{EC9A8C32-774A-42EE-838D-23EDE2249E0D}"/>
+    <cellStyle name="Error 9" xfId="13" xr:uid="{D71B86CD-7FF7-4F37-A45E-3476516B102B}"/>
+    <cellStyle name="Footnote 51" xfId="14" xr:uid="{39E057A2-169E-4032-B5FD-013191B76544}"/>
+    <cellStyle name="Good 52" xfId="15" xr:uid="{3D65E0D9-25A2-4476-81DE-4B9C46DBF0C8}"/>
+    <cellStyle name="Heading 1 54" xfId="16" xr:uid="{6A100251-0B6C-4C8D-AA90-97003F8C80BB}"/>
+    <cellStyle name="Heading 2 55" xfId="17" xr:uid="{5573F091-2DA0-4C64-BC5D-B11A83AECF64}"/>
+    <cellStyle name="Heading 3" xfId="18" xr:uid="{A6FC6B2A-6373-407A-BE3A-4AF291B75115}"/>
+    <cellStyle name="Heading 53" xfId="19" xr:uid="{1C9DC3A3-3134-4596-AA22-E80B07FA14C6}"/>
+    <cellStyle name="Hyperlink 56" xfId="20" xr:uid="{CD98438E-C2C9-4577-A119-C9B08E50E331}"/>
+    <cellStyle name="Neutral 57" xfId="21" xr:uid="{EDF5479D-3930-48FC-9C39-AF367522665E}"/>
+    <cellStyle name="Neutre 2" xfId="22" xr:uid="{21E0A002-8647-491F-B92A-059C03A44F57}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="23" xr:uid="{1C1AF427-9EF6-47CE-BFA0-76BA54449272}"/>
+    <cellStyle name="Normal 2 2" xfId="24" xr:uid="{61EEF15E-E0E2-47E6-AE0B-70E91723AF59}"/>
+    <cellStyle name="Normal 3" xfId="25" xr:uid="{2DE21C3B-5372-4B2F-A010-7A6B81F3F9AC}"/>
+    <cellStyle name="Normal 3 2" xfId="26" xr:uid="{5FB0999F-3AD4-45A9-B899-FCE74FDF7C07}"/>
+    <cellStyle name="Normal 3 3" xfId="27" xr:uid="{B425406E-E1BE-42BA-99AE-D623E72FFB1E}"/>
+    <cellStyle name="Normal 4" xfId="28" xr:uid="{5A470A25-226A-4F2C-84AF-86BD2AC93253}"/>
+    <cellStyle name="Normal 4 2" xfId="29" xr:uid="{AB51BD83-6C06-443C-9CBF-C5F46D46ED58}"/>
+    <cellStyle name="Normal 5" xfId="30" xr:uid="{3D8EA1B8-01DC-4EC8-8E57-1C2A88EFDDE2}"/>
+    <cellStyle name="Normal 6" xfId="31" xr:uid="{8D28A060-DA09-4B51-AB0E-20441BAAC32F}"/>
+    <cellStyle name="Normal 7" xfId="1" xr:uid="{822A4CF1-0523-4B09-ACB3-FC1952EA4451}"/>
+    <cellStyle name="Note 2" xfId="32" xr:uid="{68FC9D1E-50AE-46A3-9D71-15B1CA6FCDE2}"/>
+    <cellStyle name="Result 4" xfId="33" xr:uid="{5221DD5A-7F0A-4A1D-85C0-4E11B6C52E37}"/>
+    <cellStyle name="Result 58" xfId="34" xr:uid="{150769B8-E352-46D1-A17E-3A515CCA98B3}"/>
+    <cellStyle name="Résultat2" xfId="35" xr:uid="{2FD79886-FBD4-471C-A31C-8665E1E010BD}"/>
+    <cellStyle name="Status 59" xfId="36" xr:uid="{A5BDF17A-D074-463A-B439-FA78972007A8}"/>
+    <cellStyle name="Text 60" xfId="37" xr:uid="{CB8DC59D-F433-465D-AB53-B0CB5DD4CEF4}"/>
+    <cellStyle name="Warning 61" xfId="38" xr:uid="{4A3B6765-E0FA-4AD5-A76B-9D9DB7459AB2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3855,13 +4227,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="61.08984375" customWidth="1"/>
     <col min="3" max="3" width="16.90625" style="1" customWidth="1"/>
@@ -3869,7 +4241,7 @@
     <col min="5" max="5" width="46.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3886,604 +4258,766 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>106097</v>
+        <v>80211</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>670</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>1092</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>1033</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>612437</v>
+        <v>80211</v>
       </c>
       <c r="B3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>81507</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>81624</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>82315</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>82498</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>84312</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D8" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>87466</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>88207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D10" t="s">
+        <v>858</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>88571</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>89945</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>91852</v>
+      </c>
+      <c r="B13" t="s">
         <v>1130</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D13" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>91852</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>142006</v>
-      </c>
-      <c r="B5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>82498</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>129596</v>
-      </c>
-      <c r="B7" t="s">
-        <v>536</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D7" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>99521</v>
-      </c>
-      <c r="B8" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D8" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>718346</v>
-      </c>
-      <c r="B9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D9" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>80211</v>
-      </c>
-      <c r="B10" t="s">
-        <v>670</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="14" spans="1:5">
+      <c r="A14">
         <v>92198</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>379</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>96106</v>
-      </c>
-      <c r="B12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D12" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>103628</v>
-      </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>114209</v>
-      </c>
-      <c r="B14" t="s">
-        <v>624</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D14" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>122036</v>
+        <v>92198</v>
       </c>
       <c r="B15" t="s">
-        <v>496</v>
+        <v>379</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="D15" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>128084</v>
+        <v>96106</v>
       </c>
       <c r="B16" t="s">
-        <v>640</v>
+        <v>357</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="D16" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
-        <v>92198</v>
+        <v>99521</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D17" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
-        <v>103628</v>
+        <v>103596</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>1132</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1096</v>
       </c>
       <c r="D18" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>103628</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>103628</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D20" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>122036</v>
-      </c>
-      <c r="B19" t="s">
-        <v>496</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>106097</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>110335</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="D19" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>110335</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>1106</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>110357</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D23" t="s">
+        <v>821</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
         <v>110385</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>1117</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>824</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>110473</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
         <v>111649</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>1138</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D26" t="s">
         <v>809</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E26" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>112736</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
         <v>113748</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>1139</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D28" t="s">
         <v>817</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>114209</v>
+      </c>
+      <c r="B29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D29" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
         <v>114545</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B30" t="s">
         <v>1140</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D30" t="s">
         <v>839</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E30" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>127491</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D25" t="s">
-        <v>946</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>129307</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>129999</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D27" t="s">
-        <v>852</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>162206</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>120678</v>
+      </c>
+      <c r="B31" t="s">
+        <v>452</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D31" t="s">
         <v>824</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E31" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>81507</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>103596</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>718723</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>122036</v>
       </c>
       <c r="B32" t="s">
-        <v>1134</v>
+        <v>496</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="D32" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>122036</v>
+      </c>
+      <c r="B33" t="s">
+        <v>496</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>122036</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D34" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>112736</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>80211</v>
-      </c>
-      <c r="B34" t="s">
-        <v>670</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>127491</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D35" t="s">
+        <v>946</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>128084</v>
+      </c>
+      <c r="B36" t="s">
+        <v>640</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D36" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>129307</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>129596</v>
+      </c>
+      <c r="B38" t="s">
+        <v>536</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D38" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>129596</v>
+      </c>
+      <c r="B39" t="s">
+        <v>536</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>802</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>129999</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>852</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>131829</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="D34" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>88207</v>
-      </c>
-      <c r="B35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D35" t="s">
-        <v>858</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>129596</v>
-      </c>
-      <c r="B36" t="s">
-        <v>536</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D36" t="s">
-        <v>802</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>110357</v>
-      </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D37" t="s">
-        <v>821</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="D41" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
         <v>132972</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D42" t="s">
         <v>840</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E42" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39">
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>142006</v>
+      </c>
+      <c r="B43" t="s">
+        <v>516</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>162206</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D44" t="s">
+        <v>824</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>612437</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
         <v>718283</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B46" t="s">
         <v>453</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D46" t="s">
         <v>964</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E46" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>120678</v>
-      </c>
-      <c r="B40" t="s">
-        <v>452</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D40" t="s">
-        <v>824</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1108</v>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>718346</v>
+      </c>
+      <c r="B47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D47" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>718723</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>719215</v>
+      </c>
+      <c r="B49" t="s">
+        <v>430</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>719215</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>945634</v>
+      </c>
+      <c r="B51" t="s">
+        <v>379</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1157</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E40" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
+      <sortCondition ref="A1:A40"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4496,13 +5030,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="39.08984375" customWidth="1"/>
     <col min="3" max="3" width="80.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4519,7 +5053,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>75097</v>
       </c>
@@ -4536,7 +5070,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>94388</v>
       </c>
@@ -4553,7 +5087,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>137965</v>
       </c>
@@ -4570,7 +5104,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>127537</v>
       </c>
@@ -4587,7 +5121,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>81869</v>
       </c>
@@ -4604,7 +5138,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>131262</v>
       </c>
@@ -4621,7 +5155,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>115310</v>
       </c>
@@ -4638,7 +5172,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>130598</v>
       </c>
@@ -4655,7 +5189,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>130599</v>
       </c>
@@ -4672,7 +5206,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>130599</v>
       </c>
@@ -4689,7 +5223,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>130602</v>
       </c>
@@ -4706,7 +5240,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>126806</v>
       </c>
@@ -4723,7 +5257,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>621062</v>
       </c>
@@ -4740,7 +5274,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>621060</v>
       </c>
@@ -4757,7 +5291,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>1012157</v>
       </c>
@@ -4774,7 +5308,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>137873</v>
       </c>
@@ -4791,7 +5325,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>109455</v>
       </c>
@@ -4808,7 +5342,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>133806</v>
       </c>
@@ -4825,7 +5359,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>104456</v>
       </c>
@@ -4842,7 +5376,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>610917</v>
       </c>
@@ -4859,7 +5393,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>109869</v>
       </c>
@@ -4876,7 +5410,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>109870</v>
       </c>
@@ -4893,7 +5427,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>109874</v>
       </c>
@@ -4910,7 +5444,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>113577</v>
       </c>
@@ -4927,7 +5461,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>113597</v>
       </c>
@@ -4944,7 +5478,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>90335</v>
       </c>
@@ -4961,7 +5495,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>133732</v>
       </c>
@@ -4978,7 +5512,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>133735</v>
       </c>
@@ -4995,7 +5529,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>133737</v>
       </c>
@@ -5012,7 +5546,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>98014</v>
       </c>
@@ -5029,7 +5563,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>116210</v>
       </c>
@@ -5046,7 +5580,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>613123</v>
       </c>
@@ -5063,7 +5597,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>718758</v>
       </c>
@@ -5080,7 +5614,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>121455</v>
       </c>
@@ -5097,7 +5631,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>104440</v>
       </c>
@@ -5114,7 +5648,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>141033</v>
       </c>
@@ -5131,7 +5665,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>123015</v>
       </c>
@@ -5148,7 +5682,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>123045</v>
       </c>
@@ -5165,7 +5699,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>130509</v>
       </c>
@@ -5182,7 +5716,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>124004</v>
       </c>
@@ -5199,7 +5733,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>612649</v>
       </c>
@@ -5216,7 +5750,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>612647</v>
       </c>
@@ -5233,7 +5767,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>90524</v>
       </c>
@@ -5250,7 +5784,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>789034</v>
       </c>
@@ -5267,7 +5801,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>81355</v>
       </c>
@@ -5284,7 +5818,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>81359</v>
       </c>
@@ -5301,7 +5835,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>81463</v>
       </c>
@@ -5318,7 +5852,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>81506</v>
       </c>
@@ -5335,7 +5869,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>81516</v>
       </c>
@@ -5352,7 +5886,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>81522</v>
       </c>
@@ -5369,7 +5903,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>81523</v>
       </c>
@@ -5386,7 +5920,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>143287</v>
       </c>
@@ -5403,7 +5937,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>81530</v>
       </c>
@@ -5420,7 +5954,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>81537</v>
       </c>
@@ -5437,7 +5971,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>610607</v>
       </c>
@@ -5454,7 +5988,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>982167</v>
       </c>
@@ -5471,7 +6005,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>109239</v>
       </c>
@@ -5488,7 +6022,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>109241</v>
       </c>
@@ -5505,7 +6039,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>109241</v>
       </c>
@@ -5522,7 +6056,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>717326</v>
       </c>
@@ -5539,7 +6073,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>138006</v>
       </c>
@@ -5556,7 +6090,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>612520</v>
       </c>
@@ -5573,7 +6107,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>109309</v>
       </c>
@@ -5590,7 +6124,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>148872</v>
       </c>
@@ -5607,7 +6141,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>125120</v>
       </c>
@@ -5624,7 +6158,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>611535</v>
       </c>
@@ -5641,7 +6175,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>108869</v>
       </c>
@@ -5658,7 +6192,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>161781</v>
       </c>
@@ -5675,7 +6209,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>612512</v>
       </c>
@@ -5692,7 +6226,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>159762</v>
       </c>
@@ -5709,7 +6243,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>154917</v>
       </c>
@@ -5726,7 +6260,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>611636</v>
       </c>
@@ -5743,7 +6277,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>84343</v>
       </c>
@@ -5760,7 +6294,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>93236</v>
       </c>
@@ -5777,7 +6311,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>100273</v>
       </c>
@@ -5794,7 +6328,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>136857</v>
       </c>
@@ -5811,7 +6345,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>103768</v>
       </c>
@@ -5828,7 +6362,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>117885</v>
       </c>
@@ -5845,7 +6379,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>117886</v>
       </c>
@@ -5862,7 +6396,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>117891</v>
       </c>
@@ -5879,7 +6413,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>139986</v>
       </c>
@@ -5896,7 +6430,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>139987</v>
       </c>
@@ -5913,7 +6447,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>139991</v>
       </c>
@@ -5930,7 +6464,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>117893</v>
       </c>
@@ -5947,7 +6481,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>117897</v>
       </c>
@@ -5964,7 +6498,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>117921</v>
       </c>
@@ -5981,7 +6515,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>613547</v>
       </c>
@@ -5998,7 +6532,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>613548</v>
       </c>
@@ -6015,7 +6549,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>521628</v>
       </c>
@@ -6032,7 +6566,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>612463</v>
       </c>
@@ -6049,7 +6583,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>162132</v>
       </c>
@@ -6066,7 +6600,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92097</v>
       </c>
@@ -6083,7 +6617,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>133675</v>
       </c>
@@ -6100,7 +6634,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94287</v>
       </c>
@@ -6117,7 +6651,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>109498</v>
       </c>
@@ -6134,7 +6668,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>621126</v>
       </c>
@@ -6151,7 +6685,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>110346</v>
       </c>
@@ -6168,7 +6702,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>110357</v>
       </c>
@@ -6185,7 +6719,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>612526</v>
       </c>
@@ -6202,7 +6736,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>110394</v>
       </c>
@@ -6219,7 +6753,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>110413</v>
       </c>
@@ -6236,7 +6770,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>718259</v>
       </c>
@@ -6253,7 +6787,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>608749</v>
       </c>
@@ -6270,7 +6804,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>110483</v>
       </c>
@@ -6287,7 +6821,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>138352</v>
       </c>
@@ -6304,7 +6838,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>110961</v>
       </c>
@@ -6321,7 +6855,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>110994</v>
       </c>
@@ -6338,7 +6872,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>130728</v>
       </c>
@@ -6355,7 +6889,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>79903</v>
       </c>
@@ -6372,7 +6906,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>130749</v>
       </c>
@@ -6389,7 +6923,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>131420</v>
       </c>
@@ -6406,7 +6940,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>131429</v>
       </c>
@@ -6423,7 +6957,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>612395</v>
       </c>
@@ -6440,7 +6974,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>83943</v>
       </c>
@@ -6457,7 +6991,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>131706</v>
       </c>
@@ -6474,7 +7008,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>131708</v>
       </c>
@@ -6491,7 +7025,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>83992</v>
       </c>
@@ -6508,7 +7042,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>84005</v>
       </c>
@@ -6525,7 +7059,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>105775</v>
       </c>
@@ -6542,7 +7076,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>105782</v>
       </c>
@@ -6559,7 +7093,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>105782</v>
       </c>
@@ -6576,7 +7110,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>137242</v>
       </c>
@@ -6593,7 +7127,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>137243</v>
       </c>
@@ -6610,7 +7144,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>105784</v>
       </c>
@@ -6627,7 +7161,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>105801</v>
       </c>
@@ -6644,7 +7178,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>120786</v>
       </c>
@@ -6661,7 +7195,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>717866</v>
       </c>
@@ -6678,7 +7212,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>127614</v>
       </c>
@@ -6695,7 +7229,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>612601</v>
       </c>
@@ -6712,7 +7246,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>85730</v>
       </c>
@@ -6729,7 +7263,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>96793</v>
       </c>
@@ -6746,7 +7280,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>86135</v>
       </c>
@@ -6763,7 +7297,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>98676</v>
       </c>
@@ -6780,7 +7314,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>135254</v>
       </c>
@@ -6797,7 +7331,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>138673</v>
       </c>
@@ -6814,7 +7348,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>103596</v>
       </c>
@@ -6831,7 +7365,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>103598</v>
       </c>
@@ -6848,7 +7382,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>103626</v>
       </c>
@@ -6865,7 +7399,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>103628</v>
       </c>
@@ -6882,7 +7416,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>103631</v>
       </c>
@@ -6899,7 +7433,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>103987</v>
       </c>
@@ -6916,7 +7450,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>610654</v>
       </c>
@@ -6933,7 +7467,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>122558</v>
       </c>
@@ -6950,7 +7484,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>122592</v>
       </c>
@@ -6967,7 +7501,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>122650</v>
       </c>
@@ -6984,7 +7518,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>122706</v>
       </c>
@@ -7001,7 +7535,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>122709</v>
       </c>
@@ -7018,7 +7552,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>444454</v>
       </c>
@@ -7035,7 +7569,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>85020</v>
       </c>
@@ -7052,7 +7586,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>88207</v>
       </c>
@@ -7069,7 +7603,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>132839</v>
       </c>
@@ -7086,7 +7620,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>612429</v>
       </c>
@@ -7103,7 +7637,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>89221</v>
       </c>
@@ -7120,7 +7654,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>89584</v>
       </c>
@@ -7137,7 +7671,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>132921</v>
       </c>
@@ -7154,7 +7688,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>132922</v>
       </c>
@@ -7171,7 +7705,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>132972</v>
       </c>
@@ -7188,7 +7722,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>133010</v>
       </c>
@@ -7205,7 +7739,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>89716</v>
       </c>
@@ -7222,7 +7756,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>104430</v>
       </c>
@@ -7239,7 +7773,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>110246</v>
       </c>
@@ -7256,7 +7790,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>110253</v>
       </c>
@@ -7273,7 +7807,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>610872</v>
       </c>
@@ -7290,7 +7824,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>612262</v>
       </c>
@@ -7307,7 +7841,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>612626</v>
       </c>
@@ -7324,7 +7858,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>612556</v>
       </c>
@@ -7341,7 +7875,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>93036</v>
       </c>
@@ -7358,7 +7892,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>101683</v>
       </c>
@@ -7375,7 +7909,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>923809</v>
       </c>
@@ -7392,7 +7926,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>717946</v>
       </c>
@@ -7409,7 +7943,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>789299</v>
       </c>
@@ -7426,7 +7960,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>101789</v>
       </c>
@@ -7443,7 +7977,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>101820</v>
       </c>
@@ -7460,7 +7994,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>717237</v>
       </c>
@@ -7477,7 +8011,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>101987</v>
       </c>
@@ -7494,7 +8028,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>611265</v>
       </c>
@@ -7511,7 +8045,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>102087</v>
       </c>
@@ -7528,7 +8062,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>102147</v>
       </c>
@@ -7545,7 +8079,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>717250</v>
       </c>
@@ -7562,7 +8096,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>810876</v>
       </c>
@@ -7579,7 +8113,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>717773</v>
       </c>
@@ -7596,7 +8130,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>102451</v>
       </c>
@@ -7613,7 +8147,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>102461</v>
       </c>
@@ -7630,7 +8164,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>102473</v>
       </c>
@@ -7647,7 +8181,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>717775</v>
       </c>
@@ -7664,7 +8198,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>102492</v>
       </c>
@@ -7681,7 +8215,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>102511</v>
       </c>
@@ -7698,7 +8232,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>102563</v>
       </c>
@@ -7715,7 +8249,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>788804</v>
       </c>
@@ -7732,7 +8266,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>717842</v>
       </c>
@@ -7749,7 +8283,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>717389</v>
       </c>
@@ -7766,7 +8300,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>140808</v>
       </c>
@@ -7783,7 +8317,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>121971</v>
       </c>
@@ -7800,7 +8334,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>611355</v>
       </c>
@@ -7817,7 +8351,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>124256</v>
       </c>
@@ -7834,7 +8368,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>125514</v>
       </c>
@@ -7851,7 +8385,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>125517</v>
       </c>
@@ -7868,7 +8402,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>717603</v>
       </c>
@@ -7885,7 +8419,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>717608</v>
       </c>
@@ -7902,7 +8436,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>717613</v>
       </c>
@@ -7919,7 +8453,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>125653</v>
       </c>
@@ -7936,7 +8470,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>717629</v>
       </c>
@@ -7953,7 +8487,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>125719</v>
       </c>
@@ -7970,7 +8504,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>87609</v>
       </c>
@@ -7987,7 +8521,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>87647</v>
       </c>
@@ -8004,7 +8538,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>87663</v>
       </c>
@@ -8021,7 +8555,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>87699</v>
       </c>
@@ -8038,7 +8572,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>132522</v>
       </c>
@@ -8055,7 +8589,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>113376</v>
       </c>
@@ -8072,7 +8606,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>892221</v>
       </c>
@@ -8089,7 +8623,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>138764</v>
       </c>
@@ -8106,7 +8640,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>907647</v>
       </c>
@@ -8123,7 +8657,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>907646</v>
       </c>
@@ -8140,7 +8674,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>610662</v>
       </c>
@@ -8157,7 +8691,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>811033</v>
       </c>
@@ -8174,7 +8708,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>93844</v>
       </c>
@@ -8191,7 +8725,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>612662</v>
       </c>
@@ -8208,7 +8742,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>983584</v>
       </c>
@@ -8225,7 +8759,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>983587</v>
       </c>
@@ -8242,7 +8776,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>109011</v>
       </c>
@@ -8259,7 +8793,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>137906</v>
       </c>
@@ -8276,7 +8810,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>109057</v>
       </c>
@@ -8293,7 +8827,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>982856</v>
       </c>
@@ -8310,7 +8844,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>161481</v>
       </c>
@@ -8327,7 +8861,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>109101</v>
       </c>
@@ -8344,7 +8878,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>109689</v>
       </c>
@@ -8361,7 +8895,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>110290</v>
       </c>
@@ -8378,7 +8912,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>110296</v>
       </c>
@@ -8395,7 +8929,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>138241</v>
       </c>
@@ -8412,7 +8946,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>80351</v>
       </c>
@@ -8429,7 +8963,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>810907</v>
       </c>
@@ -8446,7 +8980,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>161703</v>
       </c>
@@ -8463,7 +8997,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>81915</v>
       </c>
@@ -8480,7 +9014,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>81926</v>
       </c>
@@ -8497,7 +9031,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>81935</v>
       </c>
@@ -8514,7 +9048,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>81943</v>
       </c>
@@ -8531,7 +9065,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>610749</v>
       </c>
@@ -8548,7 +9082,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>85553</v>
       </c>
@@ -8565,7 +9099,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>610739</v>
       </c>
@@ -8582,7 +9116,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>86015</v>
       </c>
@@ -8599,7 +9133,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>86017</v>
       </c>
@@ -8616,7 +9150,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>86021</v>
       </c>
@@ -8633,7 +9167,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>86034</v>
       </c>
@@ -8650,7 +9184,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>86063</v>
       </c>
@@ -8667,7 +9201,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>86358</v>
       </c>
@@ -8684,7 +9218,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>86358</v>
       </c>
@@ -8701,7 +9235,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>132196</v>
       </c>
@@ -8718,7 +9252,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>86380</v>
       </c>
@@ -8735,7 +9269,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>132220</v>
       </c>
@@ -8752,7 +9286,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>612022</v>
       </c>
@@ -8769,7 +9303,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>134301</v>
       </c>
@@ -8786,7 +9320,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>135333</v>
       </c>
@@ -8803,7 +9337,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>135338</v>
       </c>
@@ -8820,7 +9354,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>612500</v>
       </c>
@@ -8837,7 +9371,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>612499</v>
       </c>
@@ -8854,7 +9388,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>136812</v>
       </c>
@@ -8871,7 +9405,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>136819</v>
       </c>
@@ -8888,7 +9422,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>136822</v>
       </c>
@@ -8905,7 +9439,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>107185</v>
       </c>
@@ -8922,7 +9456,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>107190</v>
       </c>
@@ -8939,7 +9473,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>107500</v>
       </c>
@@ -8956,7 +9490,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>109594</v>
       </c>
@@ -8973,7 +9507,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>138096</v>
       </c>
@@ -8990,7 +9524,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>109678</v>
       </c>
@@ -9007,7 +9541,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>123751</v>
       </c>
@@ -9024,7 +9558,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>141229</v>
       </c>
@@ -9041,7 +9575,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>141249</v>
       </c>
@@ -9058,7 +9592,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>117428</v>
       </c>
@@ -9075,7 +9609,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>139852</v>
       </c>
@@ -9092,7 +9626,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>122988</v>
       </c>
@@ -9109,7 +9643,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>122990</v>
       </c>
@@ -9126,7 +9660,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>3885</v>
       </c>
@@ -9143,7 +9677,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>85084</v>
       </c>
@@ -9160,7 +9694,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>85132</v>
       </c>
@@ -9177,7 +9711,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>717358</v>
       </c>
@@ -9194,7 +9728,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>92481</v>
       </c>
@@ -9211,7 +9745,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>611097</v>
       </c>
@@ -9228,7 +9762,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>119883</v>
       </c>
@@ -9245,7 +9779,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>119894</v>
       </c>
@@ -9262,7 +9796,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>119894</v>
       </c>
@@ -9279,7 +9813,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>119894</v>
       </c>
@@ -9296,7 +9830,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>125259</v>
       </c>
@@ -9313,7 +9847,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>125259</v>
       </c>
@@ -9330,7 +9864,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>125261</v>
       </c>
@@ -9347,7 +9881,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>83607</v>
       </c>
@@ -9364,7 +9898,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>89960</v>
       </c>
@@ -9381,7 +9915,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>90045</v>
       </c>
@@ -9398,7 +9932,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>90045</v>
       </c>
@@ -9415,7 +9949,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>133121</v>
       </c>
@@ -9432,7 +9966,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>90046</v>
       </c>
@@ -9449,7 +9983,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>92567</v>
       </c>
@@ -9466,7 +10000,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>133835</v>
       </c>
@@ -9483,7 +10017,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>133840</v>
       </c>
@@ -9500,7 +10034,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>133874</v>
       </c>
@@ -9517,7 +10051,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>1000842</v>
       </c>
@@ -9534,7 +10068,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>94848</v>
       </c>
@@ -9551,7 +10085,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>97925</v>
       </c>
@@ -9568,7 +10102,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>1000405</v>
       </c>
@@ -9585,7 +10119,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>101417</v>
       </c>
@@ -9602,7 +10136,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>159924</v>
       </c>
@@ -9619,7 +10153,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>108601</v>
       </c>
@@ -9636,7 +10170,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>108606</v>
       </c>
@@ -9653,7 +10187,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>108606</v>
       </c>
@@ -9670,7 +10204,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>108617</v>
       </c>
@@ -9687,7 +10221,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>717317</v>
       </c>
@@ -9704,7 +10238,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>108683</v>
       </c>
@@ -9721,7 +10255,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>112429</v>
       </c>
@@ -9738,7 +10272,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>611920</v>
       </c>
@@ -9755,7 +10289,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>999575</v>
       </c>
@@ -9772,7 +10306,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>119756</v>
       </c>
@@ -9789,7 +10323,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>119824</v>
       </c>
@@ -9806,7 +10340,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>119824</v>
       </c>
@@ -9823,7 +10357,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>119824</v>
       </c>
@@ -9840,7 +10374,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>119827</v>
       </c>
@@ -9857,7 +10391,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>123407</v>
       </c>
@@ -9874,7 +10408,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>123507</v>
       </c>
@@ -9891,7 +10425,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>123555</v>
       </c>
@@ -9908,7 +10442,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>141172</v>
       </c>
@@ -9925,7 +10459,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>123597</v>
       </c>
@@ -9942,7 +10476,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>141186</v>
       </c>
@@ -9959,7 +10493,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>123632</v>
       </c>
@@ -9976,7 +10510,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>124560</v>
       </c>
@@ -9993,7 +10527,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>124587</v>
       </c>
@@ -10010,7 +10544,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>129904</v>
       </c>
@@ -10027,7 +10561,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95439</v>
       </c>
@@ -10044,7 +10578,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>459326</v>
       </c>
@@ -10061,7 +10595,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>83831</v>
       </c>
@@ -10078,7 +10612,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>83832</v>
       </c>
@@ -10095,7 +10629,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>131684</v>
       </c>
@@ -10112,7 +10646,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>83852</v>
       </c>
@@ -10129,7 +10663,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>83855</v>
       </c>
@@ -10146,7 +10680,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>106044</v>
       </c>
@@ -10163,7 +10697,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>106049</v>
       </c>
@@ -10180,7 +10714,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>106053</v>
       </c>
@@ -10197,7 +10731,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>106055</v>
       </c>
@@ -10214,7 +10748,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>106066</v>
       </c>
@@ -10231,7 +10765,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>106073</v>
       </c>
@@ -10248,7 +10782,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>457840</v>
       </c>
@@ -10265,7 +10799,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>106088</v>
       </c>
@@ -10282,7 +10816,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>106095</v>
       </c>
@@ -10299,7 +10833,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>160018</v>
       </c>
@@ -10316,7 +10850,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>106097</v>
       </c>
@@ -10333,7 +10867,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>106106</v>
       </c>
@@ -10350,7 +10884,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>114856</v>
       </c>
@@ -10367,7 +10901,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>119447</v>
       </c>
@@ -10384,7 +10918,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>119601</v>
       </c>
@@ -10401,7 +10935,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>125416</v>
       </c>
@@ -10418,7 +10952,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>4797</v>
       </c>
@@ -10435,7 +10969,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>4763</v>
       </c>
@@ -10452,7 +10986,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>89944</v>
       </c>
@@ -10469,7 +11003,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>104540</v>
       </c>
@@ -10486,7 +11020,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>913025</v>
       </c>
@@ -10503,7 +11037,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>106535</v>
       </c>
@@ -10520,7 +11054,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>106535</v>
       </c>
@@ -10537,7 +11071,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>121331</v>
       </c>
@@ -10554,7 +11088,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>121337</v>
       </c>
@@ -10571,7 +11105,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>612582</v>
       </c>
@@ -10588,7 +11122,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>96101</v>
       </c>
@@ -10605,7 +11139,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>134101</v>
       </c>
@@ -10622,7 +11156,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>718346</v>
       </c>
@@ -10639,7 +11173,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>96106</v>
       </c>
@@ -10656,7 +11190,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>96106</v>
       </c>
@@ -10673,7 +11207,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>134106</v>
       </c>
@@ -10690,7 +11224,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>145909</v>
       </c>
@@ -10707,7 +11241,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>145908</v>
       </c>
@@ -10724,7 +11258,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5">
       <c r="A367">
         <v>150360</v>
       </c>
@@ -10741,7 +11275,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5">
       <c r="A368">
         <v>131360</v>
       </c>
@@ -10758,7 +11292,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5">
       <c r="A369">
         <v>131371</v>
       </c>
@@ -10775,7 +11309,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5">
       <c r="A370">
         <v>139371</v>
       </c>
@@ -10792,7 +11326,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5">
       <c r="A371">
         <v>115891</v>
       </c>
@@ -10809,7 +11343,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5">
       <c r="A372">
         <v>115891</v>
       </c>
@@ -10826,7 +11360,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5">
       <c r="A373">
         <v>718396</v>
       </c>
@@ -10843,7 +11377,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5">
       <c r="A374">
         <v>115903</v>
       </c>
@@ -10860,7 +11394,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5">
       <c r="A375">
         <v>124144</v>
       </c>
@@ -10877,7 +11411,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5">
       <c r="A376">
         <v>810956</v>
       </c>
@@ -10894,7 +11428,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5">
       <c r="A377">
         <v>94114</v>
       </c>
@@ -10911,7 +11445,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5">
       <c r="A378">
         <v>717159</v>
       </c>
@@ -10928,7 +11462,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5">
       <c r="A379">
         <v>94136</v>
       </c>
@@ -10945,7 +11479,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5">
       <c r="A380">
         <v>134224</v>
       </c>
@@ -10962,7 +11496,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5">
       <c r="A381">
         <v>99716</v>
       </c>
@@ -10979,7 +11513,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5">
       <c r="A382">
         <v>911064</v>
       </c>
@@ -10996,7 +11530,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5">
       <c r="A383">
         <v>99812</v>
       </c>
@@ -11013,7 +11547,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5">
       <c r="A384">
         <v>131900</v>
       </c>
@@ -11030,7 +11564,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5">
       <c r="A385">
         <v>84840</v>
       </c>
@@ -11047,7 +11581,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5">
       <c r="A386">
         <v>84909</v>
       </c>
@@ -11064,7 +11598,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5">
       <c r="A387">
         <v>788969</v>
       </c>
@@ -11081,7 +11615,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5">
       <c r="A388">
         <v>92198</v>
       </c>
@@ -11098,7 +11632,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5">
       <c r="A389">
         <v>100824</v>
       </c>
@@ -11115,7 +11649,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5">
       <c r="A390">
         <v>105154</v>
       </c>
@@ -11132,7 +11666,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5">
       <c r="A391">
         <v>105168</v>
       </c>
@@ -11149,7 +11683,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5">
       <c r="A392">
         <v>611007</v>
       </c>
@@ -11166,7 +11700,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5">
       <c r="A393">
         <v>137139</v>
       </c>
@@ -11183,7 +11717,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5">
       <c r="A394">
         <v>107606</v>
       </c>
@@ -11200,7 +11734,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5">
       <c r="A395">
         <v>107963</v>
       </c>
@@ -11217,7 +11751,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5">
       <c r="A396">
         <v>110108</v>
       </c>
@@ -11234,7 +11768,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5">
       <c r="A397">
         <v>110108</v>
       </c>
@@ -11251,7 +11785,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5">
       <c r="A398">
         <v>110153</v>
       </c>
@@ -11268,7 +11802,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5">
       <c r="A399">
         <v>110225</v>
       </c>
@@ -11285,7 +11819,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5">
       <c r="A400">
         <v>110241</v>
       </c>
@@ -11302,7 +11836,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5">
       <c r="A401">
         <v>138215</v>
       </c>
@@ -11319,7 +11853,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5">
       <c r="A402">
         <v>717363</v>
       </c>
@@ -11336,7 +11870,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5">
       <c r="A403">
         <v>718792</v>
       </c>
@@ -11353,7 +11887,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5">
       <c r="A404">
         <v>127423</v>
       </c>
@@ -11370,7 +11904,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5">
       <c r="A405">
         <v>129150</v>
       </c>
@@ -11387,7 +11921,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5">
       <c r="A406">
         <v>129180</v>
       </c>
@@ -11404,7 +11938,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5">
       <c r="A407">
         <v>129203</v>
       </c>
@@ -11421,7 +11955,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5">
       <c r="A408">
         <v>892236</v>
       </c>
@@ -11438,7 +11972,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5">
       <c r="A409">
         <v>892235</v>
       </c>
@@ -11455,7 +11989,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5">
       <c r="A410">
         <v>717269</v>
       </c>
@@ -11472,7 +12006,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5">
       <c r="A411">
         <v>102851</v>
       </c>
@@ -11489,7 +12023,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5">
       <c r="A412">
         <v>111419</v>
       </c>
@@ -11506,7 +12040,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5">
       <c r="A413">
         <v>114545</v>
       </c>
@@ -11523,7 +12057,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5">
       <c r="A414">
         <v>114579</v>
       </c>
@@ -11540,7 +12074,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5">
       <c r="A415">
         <v>116677</v>
       </c>
@@ -11557,7 +12091,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5">
       <c r="A416">
         <v>5662</v>
       </c>
@@ -11574,7 +12108,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5">
       <c r="A417">
         <v>109584</v>
       </c>
@@ -11591,7 +12125,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5">
       <c r="A418">
         <v>145373</v>
       </c>
@@ -11608,7 +12142,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5">
       <c r="A419">
         <v>89851</v>
       </c>
@@ -11625,7 +12159,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5">
       <c r="A420">
         <v>135019</v>
       </c>
@@ -11642,7 +12176,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5">
       <c r="A421">
         <v>612475</v>
       </c>
@@ -11659,7 +12193,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5">
       <c r="A422">
         <v>135020</v>
       </c>
@@ -11676,7 +12210,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5">
       <c r="A423">
         <v>99899</v>
       </c>
@@ -11693,7 +12227,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5">
       <c r="A424">
         <v>99939</v>
       </c>
@@ -11710,7 +12244,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5">
       <c r="A425">
         <v>99988</v>
       </c>
@@ -11727,7 +12261,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5">
       <c r="A426">
         <v>84299</v>
       </c>
@@ -11744,7 +12278,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5">
       <c r="A427">
         <v>84320</v>
       </c>
@@ -11761,7 +12295,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5">
       <c r="A428">
         <v>131775</v>
       </c>
@@ -11778,7 +12312,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5">
       <c r="A429">
         <v>159916</v>
       </c>
@@ -11795,7 +12329,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5">
       <c r="A430">
         <v>99521</v>
       </c>
@@ -11812,7 +12346,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:5">
       <c r="A431">
         <v>99530</v>
       </c>
@@ -11829,7 +12363,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5">
       <c r="A432">
         <v>99567</v>
       </c>
@@ -11846,7 +12380,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:5">
       <c r="A433">
         <v>762157</v>
       </c>
@@ -11863,7 +12397,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:5">
       <c r="A434">
         <v>96916</v>
       </c>
@@ -11880,7 +12414,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5">
       <c r="A435">
         <v>96939</v>
       </c>
@@ -11897,7 +12431,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5">
       <c r="A436">
         <v>100033</v>
       </c>
@@ -11914,7 +12448,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5">
       <c r="A437">
         <v>128510</v>
       </c>
@@ -11931,7 +12465,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5">
       <c r="A438">
         <v>5081</v>
       </c>
@@ -11948,7 +12482,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:5">
       <c r="A439">
         <v>159445</v>
       </c>
@@ -11965,7 +12499,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:5">
       <c r="A440">
         <v>103840</v>
       </c>
@@ -11982,7 +12516,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:5">
       <c r="A441">
         <v>103842</v>
       </c>
@@ -11999,7 +12533,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:5">
       <c r="A442">
         <v>125970</v>
       </c>
@@ -12016,7 +12550,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:5">
       <c r="A443">
         <v>620897</v>
       </c>
@@ -12033,7 +12567,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:5">
       <c r="A444">
         <v>943210</v>
       </c>
@@ -12050,7 +12584,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:5">
       <c r="A445">
         <v>125990</v>
       </c>
@@ -12067,7 +12601,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:5">
       <c r="A446">
         <v>125990</v>
       </c>
@@ -12084,7 +12618,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:5">
       <c r="A447">
         <v>125995</v>
       </c>
@@ -12101,7 +12635,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:5">
       <c r="A448">
         <v>141568</v>
       </c>
@@ -12118,7 +12652,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:5">
       <c r="A449">
         <v>126032</v>
       </c>
@@ -12135,7 +12669,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:5">
       <c r="A450">
         <v>717285</v>
       </c>
@@ -12152,7 +12686,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:5">
       <c r="A451">
         <v>161601</v>
       </c>
@@ -12169,7 +12703,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:5">
       <c r="A452">
         <v>610998</v>
       </c>
@@ -12186,7 +12720,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:5">
       <c r="A453">
         <v>123231</v>
       </c>
@@ -12203,7 +12737,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:5">
       <c r="A454">
         <v>123237</v>
       </c>
@@ -12220,7 +12754,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:5">
       <c r="A455">
         <v>141093</v>
       </c>
@@ -12237,7 +12771,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:5">
       <c r="A456">
         <v>123278</v>
       </c>
@@ -12254,7 +12788,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:5">
       <c r="A457">
         <v>621124</v>
       </c>
@@ -12271,7 +12805,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:5">
       <c r="A458">
         <v>124796</v>
       </c>
@@ -12288,7 +12822,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:5">
       <c r="A459">
         <v>124798</v>
       </c>
@@ -12305,7 +12839,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:5">
       <c r="A460">
         <v>124807</v>
       </c>
@@ -12322,7 +12856,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:5">
       <c r="A461">
         <v>137740</v>
       </c>
@@ -12339,7 +12873,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:5">
       <c r="A462">
         <v>137808</v>
       </c>
@@ -12356,7 +12890,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:5">
       <c r="A463">
         <v>109528</v>
       </c>
@@ -12373,7 +12907,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:5">
       <c r="A464">
         <v>109534</v>
       </c>
@@ -12390,7 +12924,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:5">
       <c r="A465">
         <v>120678</v>
       </c>
@@ -12407,7 +12941,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:5">
       <c r="A466">
         <v>718283</v>
       </c>
@@ -12424,7 +12958,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:5">
       <c r="A467">
         <v>718284</v>
       </c>
@@ -12441,7 +12975,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:5">
       <c r="A468">
         <v>122065</v>
       </c>
@@ -12458,7 +12992,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:5">
       <c r="A469">
         <v>140838</v>
       </c>
@@ -12475,7 +13009,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:5">
       <c r="A470">
         <v>113612</v>
       </c>
@@ -12492,7 +13026,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:5">
       <c r="A471">
         <v>138817</v>
       </c>
@@ -12509,7 +13043,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:5">
       <c r="A472">
         <v>113625</v>
       </c>
@@ -12526,7 +13060,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:5">
       <c r="A473">
         <v>138819</v>
       </c>
@@ -12543,7 +13077,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:5">
       <c r="A474">
         <v>128318</v>
       </c>
@@ -12560,7 +13094,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:5">
       <c r="A475">
         <v>611365</v>
       </c>
@@ -12577,7 +13111,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:5">
       <c r="A476">
         <v>111464</v>
       </c>
@@ -12594,7 +13128,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:5">
       <c r="A477">
         <v>111474</v>
       </c>
@@ -12611,7 +13145,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:5">
       <c r="A478">
         <v>111499</v>
       </c>
@@ -12628,7 +13162,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:5">
       <c r="A479">
         <v>111517</v>
       </c>
@@ -12645,7 +13179,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:5">
       <c r="A480">
         <v>443289</v>
       </c>
@@ -12662,7 +13196,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:5">
       <c r="A481">
         <v>111560</v>
       </c>
@@ -12679,7 +13213,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:5">
       <c r="A482">
         <v>717356</v>
       </c>
@@ -12696,7 +13230,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:5">
       <c r="A483">
         <v>611039</v>
       </c>
@@ -12713,7 +13247,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:5">
       <c r="A484">
         <v>111665</v>
       </c>
@@ -12730,7 +13264,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:5">
       <c r="A485">
         <v>810946</v>
       </c>
@@ -12747,7 +13281,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:5">
       <c r="A486">
         <v>610876</v>
       </c>
@@ -12764,7 +13298,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:5">
       <c r="A487">
         <v>113093</v>
       </c>
@@ -12781,7 +13315,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:5">
       <c r="A488">
         <v>610877</v>
       </c>
@@ -12798,7 +13332,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:5">
       <c r="A489">
         <v>138627</v>
       </c>
@@ -12815,7 +13349,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:5">
       <c r="A490">
         <v>112590</v>
       </c>
@@ -12832,7 +13366,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:5">
       <c r="A491">
         <v>138634</v>
       </c>
@@ -12849,7 +13383,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:5">
       <c r="A492">
         <v>107132</v>
       </c>
@@ -12866,7 +13400,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:5">
       <c r="A493">
         <v>109833</v>
       </c>
@@ -12883,7 +13417,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:5">
       <c r="A494">
         <v>138122</v>
       </c>
@@ -12900,7 +13434,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:5">
       <c r="A495">
         <v>162062</v>
       </c>
@@ -12917,7 +13451,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:5">
       <c r="A496">
         <v>612521</v>
       </c>
@@ -12934,7 +13468,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:5">
       <c r="A497">
         <v>138137</v>
       </c>
@@ -12951,7 +13485,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:5">
       <c r="A498">
         <v>117624</v>
       </c>
@@ -12968,7 +13502,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:5">
       <c r="A499">
         <v>610704</v>
       </c>
@@ -12985,7 +13519,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:5">
       <c r="A500">
         <v>136993</v>
       </c>
@@ -13002,7 +13536,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:5">
       <c r="A501">
         <v>87471</v>
       </c>
@@ -13019,7 +13553,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:5">
       <c r="A502">
         <v>138907</v>
       </c>
@@ -13036,7 +13570,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:5">
       <c r="A503">
         <v>113951</v>
       </c>
@@ -13053,7 +13587,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:5">
       <c r="A504">
         <v>128829</v>
       </c>
@@ -13070,7 +13604,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:5">
       <c r="A505">
         <v>128829</v>
       </c>
@@ -13087,7 +13621,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:5">
       <c r="A506">
         <v>128907</v>
       </c>
@@ -13104,7 +13638,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:5">
       <c r="A507">
         <v>128975</v>
       </c>
@@ -13121,7 +13655,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:5">
       <c r="A508">
         <v>129000</v>
       </c>
@@ -13138,7 +13672,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:5">
       <c r="A509">
         <v>612567</v>
       </c>
@@ -13155,7 +13689,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:5">
       <c r="A510">
         <v>122036</v>
       </c>
@@ -13172,7 +13706,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:5">
       <c r="A511">
         <v>122056</v>
       </c>
@@ -13189,7 +13723,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:5">
       <c r="A512">
         <v>142091</v>
       </c>
@@ -13206,7 +13740,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:5">
       <c r="A513">
         <v>142092</v>
       </c>
@@ -13223,7 +13757,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:5">
       <c r="A514">
         <v>113294</v>
       </c>
@@ -13240,7 +13774,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:5">
       <c r="A515">
         <v>128762</v>
       </c>
@@ -13257,7 +13791,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:5">
       <c r="A516">
         <v>159903</v>
       </c>
@@ -13274,7 +13808,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:5">
       <c r="A517">
         <v>717143</v>
       </c>
@@ -13291,7 +13825,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:5">
       <c r="A518">
         <v>98967</v>
       </c>
@@ -13308,7 +13842,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:5">
       <c r="A519">
         <v>98988</v>
       </c>
@@ -13325,7 +13859,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:5">
       <c r="A520">
         <v>788873</v>
       </c>
@@ -13342,7 +13876,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:5">
       <c r="A521">
         <v>99181</v>
       </c>
@@ -13359,7 +13893,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:5">
       <c r="A522">
         <v>99182</v>
       </c>
@@ -13376,7 +13910,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:5">
       <c r="A523">
         <v>717206</v>
       </c>
@@ -13393,7 +13927,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:5">
       <c r="A524">
         <v>99186</v>
       </c>
@@ -13410,7 +13944,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:5">
       <c r="A525">
         <v>99187</v>
       </c>
@@ -13427,7 +13961,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:5">
       <c r="A526">
         <v>160974</v>
       </c>
@@ -13444,7 +13978,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:5">
       <c r="A527">
         <v>99193</v>
       </c>
@@ -13461,7 +13995,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:5">
       <c r="A528">
         <v>99198</v>
       </c>
@@ -13478,7 +14012,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:5">
       <c r="A529">
         <v>127934</v>
       </c>
@@ -13495,7 +14029,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:5">
       <c r="A530">
         <v>142006</v>
       </c>
@@ -13512,7 +14046,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:5">
       <c r="A531">
         <v>95060</v>
       </c>
@@ -13529,7 +14063,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:5">
       <c r="A532">
         <v>939840</v>
       </c>
@@ -13546,7 +14080,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:5">
       <c r="A533">
         <v>95860</v>
       </c>
@@ -13563,7 +14097,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:5">
       <c r="A534">
         <v>134381</v>
       </c>
@@ -13580,7 +14114,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:5">
       <c r="A535">
         <v>619438</v>
       </c>
@@ -13597,7 +14131,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:5">
       <c r="A536">
         <v>97567</v>
       </c>
@@ -13614,7 +14148,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:5">
       <c r="A537">
         <v>134412</v>
       </c>
@@ -13631,7 +14165,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:5">
       <c r="A538">
         <v>97696</v>
       </c>
@@ -13648,7 +14182,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:5">
       <c r="A539">
         <v>136737</v>
       </c>
@@ -13665,7 +14199,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:5">
       <c r="A540">
         <v>106306</v>
       </c>
@@ -13682,7 +14216,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:5">
       <c r="A541">
         <v>119968</v>
       </c>
@@ -13699,7 +14233,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:5">
       <c r="A542">
         <v>120085</v>
       </c>
@@ -13716,7 +14250,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:5">
       <c r="A543">
         <v>120091</v>
       </c>
@@ -13733,7 +14267,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:5">
       <c r="A544">
         <v>120192</v>
       </c>
@@ -13750,7 +14284,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:5">
       <c r="A545">
         <v>120192</v>
       </c>
@@ -13767,7 +14301,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:5">
       <c r="A546">
         <v>129539</v>
       </c>
@@ -13784,7 +14318,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:5">
       <c r="A547">
         <v>142328</v>
       </c>
@@ -13801,7 +14335,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:5">
       <c r="A548">
         <v>129545</v>
       </c>
@@ -13818,7 +14352,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:5">
       <c r="A549">
         <v>129555</v>
       </c>
@@ -13835,7 +14369,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:5">
       <c r="A550">
         <v>129587</v>
       </c>
@@ -13852,7 +14386,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:5">
       <c r="A551">
         <v>129596</v>
       </c>
@@ -13869,7 +14403,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:5">
       <c r="A552">
         <v>611325</v>
       </c>
@@ -13886,7 +14420,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:5">
       <c r="A553">
         <v>129654</v>
       </c>
@@ -13903,7 +14437,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:5">
       <c r="A554">
         <v>129660</v>
       </c>
@@ -13920,7 +14454,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:5">
       <c r="A555">
         <v>611324</v>
       </c>
@@ -13937,7 +14471,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:5">
       <c r="A556">
         <v>129719</v>
       </c>
@@ -13954,7 +14488,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:5">
       <c r="A557">
         <v>142409</v>
       </c>
@@ -13971,7 +14505,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:5">
       <c r="A558">
         <v>133362</v>
       </c>
@@ -13988,7 +14522,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:5">
       <c r="A559">
         <v>612435</v>
       </c>
@@ -14005,7 +14539,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:5">
       <c r="A560">
         <v>99021</v>
       </c>
@@ -14022,7 +14556,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:5">
       <c r="A561">
         <v>100945</v>
       </c>
@@ -14039,7 +14573,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:5">
       <c r="A562">
         <v>127908</v>
       </c>
@@ -14056,7 +14590,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:5">
       <c r="A563">
         <v>104707</v>
       </c>
@@ -14073,7 +14607,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:5">
       <c r="A564">
         <v>107243</v>
       </c>
@@ -14090,7 +14624,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:5">
       <c r="A565">
         <v>137571</v>
       </c>
@@ -14107,7 +14641,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:5">
       <c r="A566">
         <v>717791</v>
       </c>
@@ -14124,7 +14658,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:5">
       <c r="A567">
         <v>107323</v>
       </c>
@@ -14141,7 +14675,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:5">
       <c r="A568">
         <v>126469</v>
       </c>
@@ -14158,7 +14692,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:5">
       <c r="A569">
         <v>126477</v>
       </c>
@@ -14175,7 +14709,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:5">
       <c r="A570">
         <v>126479</v>
       </c>
@@ -14192,7 +14726,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:5">
       <c r="A571">
         <v>141692</v>
       </c>
@@ -14209,7 +14743,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:5">
       <c r="A572">
         <v>612578</v>
       </c>
@@ -14226,7 +14760,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:5">
       <c r="A573">
         <v>6159</v>
       </c>
@@ -14243,7 +14777,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:5">
       <c r="A574">
         <v>6207</v>
       </c>
@@ -14260,7 +14794,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:5">
       <c r="A575">
         <v>107126</v>
       </c>
@@ -14277,7 +14811,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:5">
       <c r="A576">
         <v>106747</v>
       </c>
@@ -14294,7 +14828,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:5">
       <c r="A577">
         <v>133298</v>
       </c>
@@ -14311,7 +14845,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:5">
       <c r="A578">
         <v>109750</v>
       </c>
@@ -14328,7 +14862,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:5">
       <c r="A579">
         <v>86182</v>
       </c>
@@ -14345,7 +14879,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:5">
       <c r="A580">
         <v>959877</v>
       </c>
@@ -14362,7 +14896,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:5">
       <c r="A581">
         <v>110306</v>
       </c>
@@ -14379,7 +14913,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:5">
       <c r="A582">
         <v>5036</v>
       </c>
@@ -14396,7 +14930,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:5">
       <c r="A583">
         <v>970784</v>
       </c>
@@ -14413,7 +14947,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:5">
       <c r="A584">
         <v>113682</v>
       </c>
@@ -14430,7 +14964,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:5">
       <c r="A585">
         <v>113682</v>
       </c>
@@ -14447,7 +14981,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:5">
       <c r="A586">
         <v>161377</v>
       </c>
@@ -14464,7 +14998,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:5">
       <c r="A587">
         <v>83789</v>
       </c>
@@ -14481,7 +15015,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:5">
       <c r="A588">
         <v>83796</v>
       </c>
@@ -14498,7 +15032,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:5">
       <c r="A589">
         <v>98723</v>
       </c>
@@ -14515,7 +15049,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:5">
       <c r="A590">
         <v>88389</v>
       </c>
@@ -14532,7 +15066,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:5">
       <c r="A591">
         <v>762143</v>
       </c>
@@ -14549,7 +15083,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:5">
       <c r="A592">
         <v>88420</v>
       </c>
@@ -14566,7 +15100,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:5">
       <c r="A593">
         <v>88521</v>
       </c>
@@ -14583,7 +15117,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:5">
       <c r="A594">
         <v>526279</v>
       </c>
@@ -14600,7 +15134,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:5">
       <c r="A595">
         <v>88561</v>
       </c>
@@ -14617,7 +15151,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:5">
       <c r="A596">
         <v>88606</v>
       </c>
@@ -14634,7 +15168,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:5">
       <c r="A597">
         <v>612426</v>
       </c>
@@ -14651,7 +15185,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:5">
       <c r="A598">
         <v>960921</v>
       </c>
@@ -14668,7 +15202,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:5">
       <c r="A599">
         <v>88651</v>
       </c>
@@ -14685,7 +15219,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:5">
       <c r="A600">
         <v>88675</v>
       </c>
@@ -14702,7 +15236,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:5">
       <c r="A601">
         <v>88792</v>
       </c>
@@ -14719,7 +15253,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:5">
       <c r="A602">
         <v>88821</v>
       </c>
@@ -14736,7 +15270,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:5">
       <c r="A603">
         <v>93961</v>
       </c>
@@ -14753,7 +15287,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:5">
       <c r="A604">
         <v>93961</v>
       </c>
@@ -14770,7 +15304,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:5">
       <c r="A605">
         <v>104235</v>
       </c>
@@ -14787,7 +15321,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:5">
       <c r="A606">
         <v>788856</v>
       </c>
@@ -14804,7 +15338,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:5">
       <c r="A607">
         <v>84195</v>
       </c>
@@ -14821,7 +15355,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:5">
       <c r="A608">
         <v>612437</v>
       </c>
@@ -14838,7 +15372,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:5">
       <c r="A609">
         <v>93454</v>
       </c>
@@ -14855,7 +15389,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:5">
       <c r="A610">
         <v>93456</v>
       </c>
@@ -14872,7 +15406,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:5">
       <c r="A611">
         <v>93463</v>
       </c>
@@ -14889,7 +15423,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:5">
       <c r="A612">
         <v>86299</v>
       </c>
@@ -14906,7 +15440,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:5">
       <c r="A613">
         <v>132268</v>
       </c>
@@ -14923,7 +15457,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:5">
       <c r="A614">
         <v>137726</v>
       </c>
@@ -14940,7 +15474,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:5">
       <c r="A615">
         <v>82923</v>
       </c>
@@ -14957,7 +15491,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:5">
       <c r="A616">
         <v>159574</v>
       </c>
@@ -14974,7 +15508,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:5">
       <c r="A617">
         <v>98086</v>
       </c>
@@ -14991,7 +15525,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:5">
       <c r="A618">
         <v>98104</v>
       </c>
@@ -15008,7 +15542,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:5">
       <c r="A619">
         <v>98141</v>
       </c>
@@ -15025,7 +15559,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:5">
       <c r="A620">
         <v>98216</v>
       </c>
@@ -15042,7 +15576,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:5">
       <c r="A621">
         <v>98244</v>
       </c>
@@ -15059,7 +15593,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:5">
       <c r="A622">
         <v>98244</v>
       </c>
@@ -15076,7 +15610,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:5">
       <c r="A623">
         <v>134524</v>
       </c>
@@ -15093,7 +15627,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:5">
       <c r="A624">
         <v>98258</v>
       </c>
@@ -15110,7 +15644,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:5">
       <c r="A625">
         <v>611171</v>
       </c>
@@ -15127,7 +15661,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:5">
       <c r="A626">
         <v>98291</v>
       </c>
@@ -15144,7 +15678,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:5">
       <c r="A627">
         <v>134553</v>
       </c>
@@ -15161,7 +15695,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:5">
       <c r="A628">
         <v>134593</v>
       </c>
@@ -15178,7 +15712,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:5">
       <c r="A629">
         <v>98467</v>
       </c>
@@ -15195,7 +15729,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:5">
       <c r="A630">
         <v>98522</v>
       </c>
@@ -15212,7 +15746,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:5">
       <c r="A631">
         <v>98527</v>
       </c>
@@ -15229,7 +15763,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:5">
       <c r="A632">
         <v>99665</v>
       </c>
@@ -15246,7 +15780,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:5">
       <c r="A633">
         <v>136639</v>
       </c>
@@ -15263,7 +15797,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:5">
       <c r="A634">
         <v>137041</v>
       </c>
@@ -15280,7 +15814,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:5">
       <c r="A635">
         <v>106498</v>
       </c>
@@ -15297,7 +15831,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:5">
       <c r="A636">
         <v>108543</v>
       </c>
@@ -15314,7 +15848,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:5">
       <c r="A637">
         <v>137814</v>
       </c>
@@ -15331,7 +15865,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:5">
       <c r="A638">
         <v>108714</v>
       </c>
@@ -15348,7 +15882,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:5">
       <c r="A639">
         <v>112398</v>
       </c>
@@ -15365,7 +15899,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:5">
       <c r="A640">
         <v>113215</v>
       </c>
@@ -15382,7 +15916,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:5">
       <c r="A641">
         <v>113230</v>
       </c>
@@ -15399,7 +15933,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:5">
       <c r="A642">
         <v>114124</v>
       </c>
@@ -15416,7 +15950,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:5">
       <c r="A643">
         <v>114209</v>
       </c>
@@ -15433,7 +15967,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:5">
       <c r="A644">
         <v>114226</v>
       </c>
@@ -15450,7 +15984,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:5">
       <c r="A645">
         <v>114226</v>
       </c>
@@ -15467,7 +16001,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:5">
       <c r="A646">
         <v>114312</v>
       </c>
@@ -15484,7 +16018,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:5">
       <c r="A647">
         <v>116349</v>
       </c>
@@ -15501,7 +16035,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:5">
       <c r="A648">
         <v>116350</v>
       </c>
@@ -15518,7 +16052,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:5">
       <c r="A649">
         <v>116350</v>
       </c>
@@ -15535,7 +16069,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:5">
       <c r="A650">
         <v>718285</v>
       </c>
@@ -15552,7 +16086,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:5">
       <c r="A651">
         <v>141053</v>
       </c>
@@ -15569,7 +16103,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:5">
       <c r="A652">
         <v>123082</v>
       </c>
@@ -15586,7 +16120,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:5">
       <c r="A653">
         <v>127664</v>
       </c>
@@ -15603,7 +16137,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:5">
       <c r="A654">
         <v>127664</v>
       </c>
@@ -15620,7 +16154,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:5">
       <c r="A655">
         <v>888839</v>
       </c>
@@ -15637,7 +16171,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:5">
       <c r="A656">
         <v>80446</v>
       </c>
@@ -15654,7 +16188,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:5">
       <c r="A657">
         <v>130885</v>
       </c>
@@ -15671,7 +16205,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:5">
       <c r="A658">
         <v>96031</v>
       </c>
@@ -15688,7 +16222,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:5">
       <c r="A659">
         <v>134076</v>
       </c>
@@ -15705,7 +16239,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:5">
       <c r="A660">
         <v>134087</v>
       </c>
@@ -15722,7 +16256,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:5">
       <c r="A661">
         <v>102968</v>
       </c>
@@ -15739,7 +16273,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:5">
       <c r="A662">
         <v>128084</v>
       </c>
@@ -15756,7 +16290,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:5">
       <c r="A663">
         <v>84466</v>
       </c>
@@ -15773,7 +16307,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:5">
       <c r="A664">
         <v>84476</v>
       </c>
@@ -15790,7 +16324,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:5">
       <c r="A665">
         <v>84476</v>
       </c>
@@ -15807,7 +16341,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:5">
       <c r="A666">
         <v>161077</v>
       </c>
@@ -15824,7 +16358,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:5">
       <c r="A667">
         <v>84494</v>
       </c>
@@ -15841,7 +16375,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:5">
       <c r="A668">
         <v>84497</v>
       </c>
@@ -15858,7 +16392,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:5">
       <c r="A669">
         <v>84497</v>
       </c>
@@ -15875,7 +16409,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:5">
       <c r="A670">
         <v>131826</v>
       </c>
@@ -15892,7 +16426,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:5">
       <c r="A671">
         <v>84514</v>
       </c>
@@ -15909,7 +16443,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:5">
       <c r="A672">
         <v>131834</v>
       </c>
@@ -15926,7 +16460,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:5">
       <c r="A673">
         <v>84524</v>
       </c>
@@ -15943,7 +16477,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:5">
       <c r="A674">
         <v>84525</v>
       </c>
@@ -15960,7 +16494,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:5">
       <c r="A675">
         <v>131844</v>
       </c>
@@ -15977,7 +16511,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:5">
       <c r="A676">
         <v>939828</v>
       </c>
@@ -15994,7 +16528,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:5">
       <c r="A677">
         <v>130133</v>
       </c>
@@ -16011,7 +16545,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:5">
       <c r="A678">
         <v>94062</v>
       </c>
@@ -16028,7 +16562,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:5">
       <c r="A679">
         <v>94046</v>
       </c>
@@ -16045,7 +16579,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:5">
       <c r="A680">
         <v>95550</v>
       </c>
@@ -16062,7 +16596,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:5">
       <c r="A681">
         <v>95584</v>
       </c>
@@ -16079,7 +16613,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:5">
       <c r="A682">
         <v>95584</v>
       </c>
@@ -16096,7 +16630,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:5">
       <c r="A683">
         <v>133983</v>
       </c>
@@ -16113,7 +16647,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:5">
       <c r="A684">
         <v>95589</v>
       </c>
@@ -16130,7 +16664,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:5">
       <c r="A685">
         <v>95601</v>
       </c>
@@ -16147,7 +16681,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:5">
       <c r="A686">
         <v>115076</v>
       </c>
@@ -16164,7 +16698,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:5">
       <c r="A687">
         <v>612658</v>
       </c>
@@ -16181,7 +16715,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:5">
       <c r="A688">
         <v>133459</v>
       </c>
@@ -16198,7 +16732,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:5">
       <c r="A689">
         <v>971214</v>
       </c>
@@ -16215,7 +16749,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:5">
       <c r="A690">
         <v>959293</v>
       </c>
@@ -16232,7 +16766,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:5">
       <c r="A691">
         <v>970826</v>
       </c>
@@ -16249,7 +16783,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:5">
       <c r="A692">
         <v>99077</v>
       </c>
@@ -16266,7 +16800,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:5">
       <c r="A693">
         <v>99106</v>
       </c>
@@ -16283,7 +16817,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:5">
       <c r="A694">
         <v>99106</v>
       </c>
@@ -16300,7 +16834,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:5">
       <c r="A695">
         <v>117876</v>
       </c>
@@ -16317,7 +16851,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:5">
       <c r="A696">
         <v>80211</v>
       </c>
@@ -16334,7 +16868,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:5">
       <c r="A697">
         <v>82666</v>
       </c>
@@ -16351,7 +16885,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:5">
       <c r="A698">
         <v>82666</v>
       </c>
@@ -16368,7 +16902,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:5">
       <c r="A699">
         <v>131412</v>
       </c>
@@ -16385,7 +16919,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:5">
       <c r="A700">
         <v>116448</v>
       </c>
@@ -16402,7 +16936,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:5">
       <c r="A701">
         <v>139518</v>
       </c>
@@ -16419,7 +16953,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:5">
       <c r="A702">
         <v>162125</v>
       </c>
@@ -16436,7 +16970,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:5">
       <c r="A703">
         <v>80037</v>
       </c>
@@ -16453,7 +16987,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:5">
       <c r="A704">
         <v>130788</v>
       </c>
@@ -16470,7 +17004,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:5">
       <c r="A705">
         <v>618651</v>
       </c>
@@ -16487,7 +17021,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:5">
       <c r="A706">
         <v>133773</v>
       </c>
@@ -16504,7 +17038,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:5">
       <c r="A707">
         <v>94590</v>
       </c>
@@ -16521,7 +17055,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:5">
       <c r="A708">
         <v>161239</v>
       </c>
@@ -16538,7 +17072,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:5">
       <c r="A709">
         <v>718417</v>
       </c>
@@ -16555,7 +17089,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:5">
       <c r="A710">
         <v>135275</v>
       </c>
@@ -16572,7 +17106,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:5">
       <c r="A711">
         <v>109620</v>
       </c>
@@ -16589,7 +17123,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:5">
       <c r="A712">
         <v>718723</v>
       </c>
@@ -16606,7 +17140,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:5">
       <c r="A713">
         <v>109126</v>
       </c>
@@ -16623,7 +17157,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:5">
       <c r="A714">
         <v>116922</v>
       </c>
@@ -16640,7 +17174,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:5">
       <c r="A715">
         <v>116953</v>
       </c>
@@ -16657,7 +17191,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:5">
       <c r="A716">
         <v>116963</v>
       </c>
@@ -16674,7 +17208,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:5">
       <c r="A717">
         <v>717445</v>
       </c>
@@ -16691,7 +17225,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:5">
       <c r="A718">
         <v>116981</v>
       </c>
@@ -16708,7 +17242,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:5">
       <c r="A719">
         <v>139690</v>
       </c>
@@ -16725,7 +17259,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:5">
       <c r="A720">
         <v>117012</v>
       </c>
@@ -16742,7 +17276,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:5">
       <c r="A721">
         <v>117025</v>
       </c>
@@ -16759,7 +17293,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:5">
       <c r="A722">
         <v>117025</v>
       </c>
@@ -16776,7 +17310,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:5">
       <c r="A723">
         <v>117047</v>
       </c>
@@ -16793,7 +17327,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:5">
       <c r="A724">
         <v>117155</v>
       </c>
@@ -16810,7 +17344,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:5">
       <c r="A725">
         <v>139766</v>
       </c>
@@ -16827,7 +17361,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:5">
       <c r="A726">
         <v>117165</v>
       </c>
@@ -16844,7 +17378,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:5">
       <c r="A727">
         <v>117165</v>
       </c>
@@ -16861,7 +17395,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:5">
       <c r="A728">
         <v>117205</v>
       </c>
@@ -16878,7 +17412,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:5">
       <c r="A729">
         <v>117211</v>
       </c>
@@ -16895,7 +17429,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:5">
       <c r="A730">
         <v>117246</v>
       </c>
@@ -16912,7 +17446,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:5">
       <c r="A731">
         <v>83254</v>
       </c>
@@ -16929,7 +17463,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:5">
       <c r="A732">
         <v>83266</v>
       </c>
@@ -16946,7 +17480,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:5">
       <c r="A733">
         <v>126124</v>
       </c>
@@ -16963,7 +17497,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:5">
       <c r="A734">
         <v>126150</v>
       </c>
@@ -16980,7 +17514,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:5">
       <c r="A735">
         <v>116093</v>
       </c>
@@ -16997,7 +17531,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:5">
       <c r="A736">
         <v>139441</v>
       </c>
@@ -17014,7 +17548,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:5">
       <c r="A737">
         <v>92651</v>
       </c>
@@ -17031,7 +17565,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:5">
       <c r="A738">
         <v>92700</v>
       </c>
@@ -17048,7 +17582,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:5">
       <c r="A739">
         <v>975550</v>
       </c>
@@ -17065,7 +17599,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:5">
       <c r="A740">
         <v>100203</v>
       </c>
@@ -17082,7 +17616,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:5">
       <c r="A741">
         <v>81035</v>
       </c>
@@ -17099,7 +17633,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:5">
       <c r="A742">
         <v>717719</v>
       </c>
@@ -17116,7 +17650,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:5">
       <c r="A743">
         <v>83164</v>
       </c>
@@ -17133,7 +17667,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:5">
       <c r="A744">
         <v>83714</v>
       </c>
@@ -17150,7 +17684,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:5">
       <c r="A745">
         <v>611470</v>
       </c>
@@ -17167,7 +17701,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:5">
       <c r="A746">
         <v>115509</v>
       </c>
@@ -17184,7 +17718,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:5">
       <c r="A747">
         <v>115574</v>
       </c>
@@ -17201,7 +17735,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:5">
       <c r="A748">
         <v>115614</v>
       </c>
@@ -17218,7 +17752,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:5">
       <c r="A749">
         <v>119113</v>
       </c>
@@ -17235,7 +17769,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:5">
       <c r="A750">
         <v>126303</v>
       </c>
@@ -17252,7 +17786,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:5">
       <c r="A751">
         <v>126310</v>
       </c>
@@ -17269,7 +17803,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:5">
       <c r="A752">
         <v>130714</v>
       </c>
@@ -17286,7 +17820,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:5">
       <c r="A753">
         <v>122225</v>
       </c>
@@ -17303,7 +17837,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:5">
       <c r="A754">
         <v>122281</v>
       </c>
@@ -17320,7 +17854,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:5">
       <c r="A755">
         <v>112811</v>
       </c>
@@ -17337,7 +17871,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:5">
       <c r="A756">
         <v>122508</v>
       </c>
@@ -17354,7 +17888,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:5">
       <c r="A757">
         <v>612569</v>
       </c>
@@ -17371,7 +17905,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:5">
       <c r="A758">
         <v>128211</v>
       </c>
@@ -17388,7 +17922,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:5">
       <c r="A759">
         <v>93854</v>
       </c>
@@ -17405,7 +17939,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:5">
       <c r="A760">
         <v>112038</v>
       </c>
@@ -17422,7 +17956,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:5">
       <c r="A761">
         <v>138532</v>
       </c>
@@ -17439,7 +17973,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:5">
       <c r="A762">
         <v>112042</v>
       </c>
@@ -17456,7 +17990,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:5">
       <c r="A763">
         <v>138537</v>
       </c>
@@ -17473,7 +18007,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:5">
       <c r="A764">
         <v>120962</v>
       </c>
@@ -17490,7 +18024,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:5">
       <c r="A765">
         <v>120987</v>
       </c>
@@ -17507,7 +18041,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:5">
       <c r="A766">
         <v>121012</v>
       </c>
@@ -17524,7 +18058,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:5">
       <c r="A767">
         <v>121022</v>
       </c>
@@ -17541,7 +18075,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:5">
       <c r="A768">
         <v>121035</v>
       </c>
@@ -17558,7 +18092,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:5">
       <c r="A769">
         <v>121096</v>
       </c>
@@ -17575,7 +18109,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:5">
       <c r="A770">
         <v>121106</v>
       </c>
@@ -17592,7 +18126,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:5">
       <c r="A771">
         <v>121124</v>
       </c>
@@ -17609,7 +18143,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:5">
       <c r="A772">
         <v>121144</v>
       </c>
@@ -17626,7 +18160,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:5">
       <c r="A773">
         <v>121158</v>
       </c>
@@ -17643,7 +18177,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:5">
       <c r="A774">
         <v>121176</v>
       </c>
@@ -17660,7 +18194,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:5">
       <c r="A775">
         <v>121176</v>
       </c>
@@ -17677,7 +18211,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:5">
       <c r="A776">
         <v>140685</v>
       </c>
@@ -17694,7 +18228,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:5">
       <c r="A777">
         <v>121205</v>
       </c>
@@ -17711,7 +18245,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:5">
       <c r="A778">
         <v>92357</v>
       </c>
@@ -17728,7 +18262,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:5">
       <c r="A779">
         <v>103693</v>
       </c>
@@ -17745,7 +18279,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:5">
       <c r="A780">
         <v>93637</v>
       </c>
@@ -17762,7 +18296,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:5">
       <c r="A781">
         <v>6131</v>
       </c>
@@ -17779,7 +18313,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:5">
       <c r="A782">
         <v>6132</v>
       </c>
@@ -17796,7 +18330,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:5">
       <c r="A783">
         <v>6720</v>
       </c>
@@ -17813,7 +18347,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:5">
       <c r="A784">
         <v>6722</v>
       </c>
@@ -17830,7 +18364,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:5">
       <c r="A785">
         <v>6754</v>
       </c>
@@ -17847,7 +18381,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:5">
       <c r="A786">
         <v>6724</v>
       </c>
@@ -17864,7 +18398,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:5">
       <c r="A787">
         <v>6725</v>
       </c>
@@ -17881,7 +18415,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:5">
       <c r="A788">
         <v>6728</v>
       </c>
@@ -17898,7 +18432,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:5">
       <c r="A789">
         <v>6728</v>
       </c>
@@ -17915,7 +18449,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:5">
       <c r="A790">
         <v>6732</v>
       </c>
@@ -17932,7 +18466,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:5">
       <c r="A791">
         <v>6734</v>
       </c>
@@ -17949,7 +18483,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:5">
       <c r="A792">
         <v>6736</v>
       </c>
@@ -17966,7 +18500,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:5">
       <c r="A793">
         <v>6739</v>
       </c>
@@ -17983,7 +18517,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:5">
       <c r="A794">
         <v>6739</v>
       </c>
@@ -18000,7 +18534,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:5">
       <c r="A795">
         <v>6739</v>
       </c>
@@ -18017,7 +18551,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:5">
       <c r="A796">
         <v>912986</v>
       </c>
@@ -18034,7 +18568,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:5">
       <c r="A797">
         <v>6746</v>
       </c>
@@ -18051,7 +18585,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:5">
       <c r="A798">
         <v>6746</v>
       </c>
@@ -18068,7 +18602,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:5">
       <c r="A799">
         <v>6746</v>
       </c>
@@ -18085,7 +18619,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:5">
       <c r="A800">
         <v>6747</v>
       </c>
@@ -18102,7 +18636,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:5">
       <c r="A801">
         <v>6748</v>
       </c>
@@ -18119,7 +18653,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:5">
       <c r="A802">
         <v>6750</v>
       </c>
@@ -18136,7 +18670,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:5">
       <c r="A803">
         <v>6751</v>
       </c>
@@ -18153,7 +18687,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:5">
       <c r="A804">
         <v>6742</v>
       </c>
@@ -18170,7 +18704,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:5">
       <c r="A805">
         <v>433953</v>
       </c>
@@ -18187,7 +18721,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:5">
       <c r="A806">
         <v>6763</v>
       </c>
@@ -18204,7 +18738,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:5">
       <c r="A807">
         <v>434521</v>
       </c>
@@ -18221,7 +18755,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:5">
       <c r="A808">
         <v>6762</v>
       </c>
@@ -18238,7 +18772,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:5">
       <c r="A809">
         <v>6765</v>
       </c>
@@ -18255,7 +18789,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:5">
       <c r="A810">
         <v>6768</v>
       </c>
@@ -18272,7 +18806,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:5">
       <c r="A811">
         <v>6769</v>
       </c>
@@ -18289,7 +18823,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:5">
       <c r="A812">
         <v>6774</v>
       </c>
@@ -18306,7 +18840,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:5">
       <c r="A813">
         <v>6776</v>
       </c>
@@ -18323,7 +18857,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:5">
       <c r="A814">
         <v>433954</v>
       </c>
@@ -18340,7 +18874,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:5">
       <c r="A815">
         <v>433956</v>
       </c>
@@ -18357,7 +18891,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:5">
       <c r="A816">
         <v>6780</v>
       </c>
@@ -18374,7 +18908,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:5">
       <c r="A817">
         <v>6783</v>
       </c>
@@ -18391,7 +18925,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:5">
       <c r="A818">
         <v>6784</v>
       </c>
@@ -18408,7 +18942,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:5">
       <c r="A819">
         <v>6785</v>
       </c>
@@ -18425,7 +18959,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:5">
       <c r="A820">
         <v>6789</v>
       </c>
@@ -18442,7 +18976,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:5">
       <c r="A821">
         <v>6790</v>
       </c>
@@ -18459,7 +18993,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:5">
       <c r="A822">
         <v>434527</v>
       </c>
@@ -18476,7 +19010,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:5">
       <c r="A823">
         <v>6794</v>
       </c>
@@ -18493,7 +19027,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:5">
       <c r="A824">
         <v>6795</v>
       </c>
@@ -18510,7 +19044,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:5">
       <c r="A825">
         <v>6797</v>
       </c>
@@ -18527,7 +19061,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:5">
       <c r="A826">
         <v>6802</v>
       </c>
@@ -18544,7 +19078,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:5">
       <c r="A827">
         <v>4964</v>
       </c>
@@ -18575,13 +19109,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24.453125" customWidth="1"/>
     <col min="2" max="2" width="46.08984375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="17.5" customHeight="1">
       <c r="A1" t="s">
         <v>1104</v>
       </c>
@@ -18589,7 +19123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="17.5" customHeight="1">
       <c r="A2" t="s">
         <v>1102</v>
       </c>
@@ -18597,16 +19131,16 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.5" customHeight="1">
       <c r="A3" t="s">
         <v>1105</v>
       </c>
       <c r="B3" s="4">
         <f ca="1">NOW()</f>
-        <v>45709.626593749999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>45709.63359085648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.5" customHeight="1">
       <c r="A4" t="s">
         <v>1126</v>
       </c>
@@ -18614,11 +19148,11 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="17.5" customHeight="1">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:2" ht="17.5" customHeight="1"/>
+    <row r="7" spans="1:2" ht="17.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TAXONOMIE/TAXREF-MATCH-BASEFLOR/Correctif_baseflor_bryo.xlsx
+++ b/TAXONOMIE/TAXREF-MATCH-BASEFLOR/Correctif_baseflor_bryo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\TAXONOMIE\TAXREF-MATCH-BASEFLOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F5B04-D20E-4847-AA11-D4FB40564904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DDEA27-E7CD-4AAC-8872-2DB6C6D7F35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="METADATA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORRECTIF!$A$1:$E$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORRECTIF!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="1163">
   <si>
     <t>CD_NOM</t>
   </si>
@@ -3331,9 +3331,6 @@
     <t>5-8</t>
   </si>
   <si>
-    <t xml:space="preserve">matorrals héliophiles thermoméditerranéens </t>
-  </si>
-  <si>
     <t>5-7</t>
   </si>
   <si>
@@ -3343,15 +3340,6 @@
     <t>7-9</t>
   </si>
   <si>
-    <t>ripisylves et et zones inondables</t>
-  </si>
-  <si>
-    <t>garrigues, rocailles, pelouses sèches, friches, anciennes cultures, oliveraies.</t>
-  </si>
-  <si>
-    <t>étages méso- et supraméditerranéen, subspontané au-dessus. Héliophile, thermophile, mésoxérophile, neutro-calcicline, gravicole ou terricole, nitratophile. Chênaies blanches, ripisylves sèches, ourlets, fruticées notamment à genêt cendré.</t>
-  </si>
-  <si>
     <t>lieux humides, bords des rivières, buissons des lieux montagneux</t>
   </si>
   <si>
@@ -3487,76 +3475,70 @@
     <t>plante adventice des champs de blé et de seigle. Elle se rencontre également dans les friches.</t>
   </si>
   <si>
-    <t>Mai-Juillet</t>
-  </si>
-  <si>
     <t>Caucalidion platycarpi Tüxen 1950 ex von Rochow 1951</t>
   </si>
   <si>
-    <t>Mars-Juin(Août)</t>
-  </si>
-  <si>
     <t>Onopordetea acanthii Braun-Blanquet 1964</t>
   </si>
   <si>
-    <t>Avril-Juin</t>
-  </si>
-  <si>
     <t>Tanaceto corymbosi - Bupleurion falcati subsp. falcati Julve 1993</t>
   </si>
   <si>
-    <t>Mars-Mai</t>
-  </si>
-  <si>
     <t>Serapiadetea cordigero - linguae de Foucault 2012</t>
   </si>
   <si>
-    <t>Juin-Aout</t>
-  </si>
-  <si>
     <t>Ononidetalia striatae Braun-Blanquet 1949 em. Gaultier 1989</t>
   </si>
   <si>
-    <t>Mars-Juillet</t>
-  </si>
-  <si>
     <t>Aphyllanthion monspeliensis Braun-Blanquet (1931) 1947 em. Barbero, Loisel &amp; Quézel 1972</t>
   </si>
   <si>
-    <t>Chenaies pubescente thermophile matorale méditerranéenned</t>
-  </si>
-  <si>
     <t>sous bois, pelouses et landes mésophiles à mésohygrophiles</t>
   </si>
   <si>
-    <t>Janvier-Mars</t>
-  </si>
-  <si>
-    <t>Mai-juin</t>
-  </si>
-  <si>
-    <t>Sporulation entre mars et mai</t>
-  </si>
-  <si>
     <t>pelouses vivaces hygrophiles, oligotrophiles, surtout acidiphiles</t>
   </si>
   <si>
-    <t>Juin-septembre</t>
-  </si>
-  <si>
-    <t>Fevrier-Avril</t>
-  </si>
-  <si>
     <t>Pelousesméso à hygrophile, oligotrophiles, thermophiles</t>
   </si>
   <si>
     <t>Ampelodesmos mauritanicus (Poir.) T.Durand &amp; Schinz, 1894</t>
   </si>
   <si>
-    <t>Mai-Juin</t>
-  </si>
-  <si>
     <t>Pelouses et fruticées méditéranéennes xérophiles</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>matorrals héliophiles thermoméditerranéens, étages méso- et supraméditerranéen, subspontané au-dessus. Héliophile, thermophile, mésoxérophile, neutro-calcicline, gravicole ou terricole, nitratophile. Chênaies blanches, ripisylves sèches, ourlets, fruticées notamment à genêt cendré.</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>Allium scaberrimum J.Serres, 1857</t>
+  </si>
+  <si>
+    <t>Fumaria petteri subsp. calcarata (Cadevall) Lidén &amp; A.Soler, 1984</t>
+  </si>
+  <si>
+    <t>Lythrum tribracteatum Salzm. ex Spreng., 1827</t>
+  </si>
+  <si>
+    <t>Plante messicole, friches</t>
+  </si>
+  <si>
+    <t>anuelle des mares et fossés marécageux</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>3-4</t>
   </si>
 </sst>
 </file>
@@ -3564,7 +3546,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00\ [$€-40C];[Red]\-#,##0.00\ [$€-40C]"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-40C];[Red]\-#,##0.00\ [$€-40C]"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3890,7 +3872,7 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -4227,10 +4209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4246,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -4272,24 +4254,21 @@
         <v>1033</v>
       </c>
       <c r="E2" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>80211</v>
+        <v>81507</v>
       </c>
       <c r="B3" t="s">
-        <v>670</v>
+        <v>1127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="D3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4297,184 +4276,187 @@
         <v>81507</v>
       </c>
       <c r="B4" t="s">
-        <v>1131</v>
+        <v>1156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1135</v>
+        <v>1091</v>
       </c>
       <c r="D4" t="s">
-        <v>1144</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>81624</v>
+        <v>719215</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>1150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1160</v>
+        <v>1090</v>
       </c>
       <c r="D5" t="s">
-        <v>858</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>82315</v>
+        <v>82498</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>1118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1163</v>
+        <v>1087</v>
       </c>
       <c r="D6" t="s">
-        <v>804</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>82498</v>
+        <v>84514</v>
       </c>
       <c r="B7" t="s">
-        <v>1122</v>
+        <v>647</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="D7" t="s">
-        <v>1089</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>84312</v>
+        <v>88207</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1164</v>
+        <v>1094</v>
       </c>
       <c r="D8" t="s">
-        <v>820</v>
+        <v>858</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>87466</v>
+        <v>132972</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1164</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>1165</v>
+        <v>840</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>88207</v>
+        <v>88571</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1147</v>
+        <v>1094</v>
       </c>
       <c r="D10" t="s">
-        <v>858</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1148</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>88571</v>
+        <v>91852</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>1126</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1149</v>
+        <v>1085</v>
       </c>
       <c r="D11" t="s">
-        <v>817</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>89945</v>
+        <v>92198</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>379</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1151</v>
+        <v>1093</v>
       </c>
       <c r="D12" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>91852</v>
+        <v>718346</v>
       </c>
       <c r="B13" t="s">
-        <v>1130</v>
+        <v>356</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D13" t="s">
-        <v>1088</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>92198</v>
+        <v>96106</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="D14" t="s">
-        <v>1093</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>92198</v>
+        <v>99112</v>
       </c>
       <c r="B15" t="s">
-        <v>379</v>
+        <v>1157</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1094</v>
+        <v>1124</v>
       </c>
       <c r="D15" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>96106</v>
+        <v>99182</v>
       </c>
       <c r="B16" t="s">
-        <v>357</v>
+        <v>508</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="D16" t="s">
-        <v>934</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4496,13 +4478,13 @@
         <v>103596</v>
       </c>
       <c r="B18" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D18" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4513,24 +4495,24 @@
         <v>144</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D19" t="s">
         <v>1096</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>103628</v>
+        <v>719215</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>430</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1096</v>
+        <v>1121</v>
       </c>
       <c r="D20" t="s">
-        <v>1100</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4552,470 +4534,425 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>110335</v>
+        <v>107125</v>
       </c>
       <c r="B22" t="s">
-        <v>1116</v>
+        <v>1158</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1094</v>
+        <v>1161</v>
       </c>
       <c r="D22" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1107</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>110357</v>
+        <v>89945</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1151</v>
+        <v>1121</v>
       </c>
       <c r="D23" t="s">
-        <v>821</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>110385</v>
+        <v>162206</v>
       </c>
       <c r="B24" t="s">
         <v>1117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1123</v>
+        <v>1087</v>
       </c>
       <c r="D24" t="s">
         <v>824</v>
       </c>
       <c r="E24" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>110473</v>
+        <v>718723</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>1129</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1159</v>
+        <v>1131</v>
       </c>
       <c r="D25" t="s">
-        <v>824</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>111649</v>
+        <v>109678</v>
       </c>
       <c r="B26" t="s">
-        <v>1138</v>
+        <v>268</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>1162</v>
       </c>
       <c r="D26" t="s">
-        <v>809</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1109</v>
+        <v>844</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>112736</v>
+        <v>82315</v>
       </c>
       <c r="B27" t="s">
-        <v>1136</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1137</v>
+        <v>1152</v>
       </c>
       <c r="D27" t="s">
-        <v>1141</v>
+        <v>804</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>113748</v>
+        <v>110335</v>
       </c>
       <c r="B28" t="s">
-        <v>1139</v>
+        <v>1112</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1124</v>
+        <v>1093</v>
       </c>
       <c r="D28" t="s">
-        <v>817</v>
+        <v>1102</v>
       </c>
       <c r="E28" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>114209</v>
+        <v>110473</v>
       </c>
       <c r="B29" t="s">
-        <v>624</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1091</v>
+        <v>1154</v>
       </c>
       <c r="D29" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>114545</v>
+        <v>110357</v>
       </c>
       <c r="B30" t="s">
-        <v>1140</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="D30" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="E30" t="s">
-        <v>1111</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>120678</v>
+        <v>110385</v>
       </c>
       <c r="B31" t="s">
-        <v>452</v>
+        <v>1113</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1155</v>
+        <v>1119</v>
       </c>
       <c r="D31" t="s">
         <v>824</v>
       </c>
       <c r="E31" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>122036</v>
+        <v>131829</v>
       </c>
       <c r="B32" t="s">
-        <v>496</v>
+        <v>112</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D32" t="s">
-        <v>1098</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>122036</v>
+        <v>111649</v>
       </c>
       <c r="B33" t="s">
-        <v>496</v>
+        <v>1134</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1094</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>1101</v>
+        <v>809</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>122036</v>
+        <v>112736</v>
       </c>
       <c r="B34" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1094</v>
+        <v>1133</v>
       </c>
       <c r="D34" t="s">
-        <v>841</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>127491</v>
+        <v>113748</v>
       </c>
       <c r="B35" t="s">
-        <v>1118</v>
+        <v>1135</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1094</v>
+        <v>1120</v>
       </c>
       <c r="D35" t="s">
-        <v>946</v>
+        <v>817</v>
       </c>
       <c r="E35" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>128084</v>
+        <v>114209</v>
       </c>
       <c r="B36" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D36" t="s">
-        <v>966</v>
+        <v>840</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>129307</v>
+        <v>114545</v>
       </c>
       <c r="B37" t="s">
-        <v>1119</v>
+        <v>1136</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="D37" t="s">
-        <v>1113</v>
+        <v>839</v>
       </c>
       <c r="E37" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>129596</v>
+        <v>87466</v>
       </c>
       <c r="B38" t="s">
-        <v>536</v>
+        <v>87</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1090</v>
+        <v>1119</v>
       </c>
       <c r="D38" t="s">
-        <v>802</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>129596</v>
+        <v>84312</v>
       </c>
       <c r="B39" t="s">
-        <v>536</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1149</v>
+        <v>1119</v>
       </c>
       <c r="D39" t="s">
-        <v>802</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1150</v>
+        <v>820</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>129999</v>
+        <v>120678</v>
       </c>
       <c r="B40" t="s">
-        <v>1120</v>
+        <v>452</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1124</v>
+        <v>1155</v>
       </c>
       <c r="D40" t="s">
-        <v>852</v>
+        <v>824</v>
       </c>
       <c r="E40" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>131829</v>
+        <v>718283</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>453</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="D41" t="s">
-        <v>824</v>
+        <v>964</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>132972</v>
+        <v>122036</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>1130</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1153</v>
+        <v>1093</v>
       </c>
       <c r="D42" t="s">
-        <v>840</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1154</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>142006</v>
+        <v>127491</v>
       </c>
       <c r="B43" t="s">
-        <v>516</v>
+        <v>1114</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="D43" t="s">
-        <v>1086</v>
+        <v>946</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>162206</v>
+        <v>142006</v>
       </c>
       <c r="B44" t="s">
-        <v>1121</v>
+        <v>516</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>1087</v>
       </c>
       <c r="D44" t="s">
-        <v>824</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>612437</v>
+        <v>128084</v>
       </c>
       <c r="B45" t="s">
-        <v>1130</v>
+        <v>640</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="D45" t="s">
-        <v>1088</v>
+        <v>966</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>718283</v>
+        <v>129307</v>
       </c>
       <c r="B46" t="s">
-        <v>453</v>
+        <v>1115</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1155</v>
+        <v>1124</v>
       </c>
       <c r="D46" t="s">
-        <v>964</v>
+        <v>1109</v>
       </c>
       <c r="E46" t="s">
-        <v>1156</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>718346</v>
+        <v>129596</v>
       </c>
       <c r="B47" t="s">
-        <v>356</v>
+        <v>536</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="D47" t="s">
-        <v>882</v>
+        <v>802</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>718723</v>
+        <v>129999</v>
       </c>
       <c r="B48" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="D48" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>719215</v>
-      </c>
-      <c r="B49" t="s">
-        <v>430</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>719215</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>945634</v>
-      </c>
-      <c r="B51" t="s">
-        <v>379</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1157</v>
+        <v>852</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E40" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
-      <sortCondition ref="A1:A40"/>
+  <autoFilter ref="A1:E33" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E50">
+      <sortCondition ref="B1:B33"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19117,7 +19054,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.5" customHeight="1">
       <c r="A1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B1" s="3">
         <v>17</v>
@@ -19125,27 +19062,27 @@
     </row>
     <row r="2" spans="1:2" ht="17.5" customHeight="1">
       <c r="A2" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.5" customHeight="1">
       <c r="A3" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B3" s="4">
         <f ca="1">NOW()</f>
-        <v>45709.63359085648</v>
+        <v>45715.474270370367</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.5" customHeight="1">
       <c r="A4" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.5" customHeight="1">
